--- a/reports/_CMC_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_50_.xlsx
+++ b/reports/_CMC_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_50_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA238"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="268.18988764044946" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="93.28988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="63.58988764044945"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1621,37 +1621,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
@@ -1766,37 +1745,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD PLY WOOD MISSING 30" X 20"</t>
-        </is>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PLY WOOD MISSING 30\" X 20\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
@@ -1911,37 +1869,16 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY  TYER MARK</t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY  TYER MARK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
@@ -2056,37 +1993,16 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
@@ -2401,37 +2317,16 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
-        </is>
-      </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BLACK STAIN", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -2746,103 +2641,40 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD SCREW MISSING 02 PCS</t>
-        </is>
-      </c>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD SCREW MISSING 02 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL CORRODED EYELED (WATER MARK)</t>
-        </is>
-      </c>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL CORRODED EYELED (WATER MARK)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
-      <c r="Q23" s="0"/>
-      <c r="R23" s="0"/>
-      <c r="S23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="0"/>
-      <c r="W23" s="0"/>
-      <c r="X23" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY &amp; RUSTED</t>
-        </is>
-      </c>
-      <c r="Y23" s="0"/>
-      <c r="Z23" s="0"/>
-      <c r="AA23" s="0"/>
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY &amp; RUSTED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
@@ -3157,37 +2989,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR TOP GASKET CUT 5"</t>
-        </is>
-      </c>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT DOOR TOP GASKET CUT 5\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
@@ -3302,37 +3113,16 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y29" s="0"/>
-      <c r="Z29" s="0"/>
-      <c r="AA29" s="0"/>
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
@@ -4863,37 +4653,16 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0"/>
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
-      <c r="L46" s="0"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="0"/>
-      <c r="O46" s="0"/>
-      <c r="P46" s="0"/>
-      <c r="Q46" s="0"/>
-      <c r="R46" s="0"/>
-      <c r="S46" s="0"/>
-      <c r="T46" s="0"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="0"/>
-      <c r="W46" s="0"/>
-      <c r="X46" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y46" s="0"/>
-      <c r="Z46" s="0"/>
-      <c r="AA46" s="0"/>
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
@@ -5008,37 +4777,16 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0"/>
-      <c r="B48" s="0"/>
-      <c r="C48" s="0"/>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0"/>
-      <c r="H48" s="0"/>
-      <c r="I48" s="0"/>
-      <c r="J48" s="0"/>
-      <c r="K48" s="0"/>
-      <c r="L48" s="0"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="0"/>
-      <c r="O48" s="0"/>
-      <c r="P48" s="0"/>
-      <c r="Q48" s="0"/>
-      <c r="R48" s="0"/>
-      <c r="S48" s="0"/>
-      <c r="T48" s="0"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="0"/>
-      <c r="W48" s="0"/>
-      <c r="X48" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y48" s="0"/>
-      <c r="Z48" s="0"/>
-      <c r="AA48" s="0"/>
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
@@ -5489,37 +5237,16 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
-      <c r="X53" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0"/>
-      <c r="AA53" s="0"/>
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
@@ -5746,37 +5473,16 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="0"/>
-      <c r="O56" s="0"/>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0"/>
-      <c r="R56" s="0"/>
-      <c r="S56" s="0"/>
-      <c r="T56" s="0"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
-      <c r="X56" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
-        </is>
-      </c>
-      <c r="Y56" s="0"/>
-      <c r="Z56" s="0"/>
-      <c r="AA56" s="0"/>
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL SPOT", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
@@ -6003,37 +5709,16 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="0"/>
-      <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
-      <c r="Q59" s="0"/>
-      <c r="R59" s="0"/>
-      <c r="S59" s="0"/>
-      <c r="T59" s="0"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="0"/>
-      <c r="W59" s="0"/>
-      <c r="X59" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y59" s="0"/>
-      <c r="Z59" s="0"/>
-      <c r="AA59" s="0"/>
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
@@ -7132,37 +6817,16 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0"/>
-      <c r="B70" s="0"/>
-      <c r="C70" s="0"/>
-      <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
-      <c r="F70" s="0"/>
-      <c r="G70" s="0"/>
-      <c r="H70" s="0"/>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
-      <c r="K70" s="0"/>
-      <c r="L70" s="0"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="0"/>
-      <c r="O70" s="0"/>
-      <c r="P70" s="0"/>
-      <c r="Q70" s="0"/>
-      <c r="R70" s="0"/>
-      <c r="S70" s="0"/>
-      <c r="T70" s="0"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="0"/>
-      <c r="W70" s="0"/>
-      <c r="X70" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y70" s="0"/>
-      <c r="Z70" s="0"/>
-      <c r="AA70" s="0"/>
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
@@ -7389,37 +7053,16 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0"/>
-      <c r="B73" s="0"/>
-      <c r="C73" s="0"/>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
-      <c r="F73" s="0"/>
-      <c r="G73" s="0"/>
-      <c r="H73" s="0"/>
-      <c r="I73" s="0"/>
-      <c r="J73" s="0"/>
-      <c r="K73" s="0"/>
-      <c r="L73" s="0"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="0"/>
-      <c r="O73" s="0"/>
-      <c r="P73" s="0"/>
-      <c r="Q73" s="0"/>
-      <c r="R73" s="0"/>
-      <c r="S73" s="0"/>
-      <c r="T73" s="0"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="0"/>
-      <c r="W73" s="0"/>
-      <c r="X73" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR J BAR BENT 12'</t>
-        </is>
-      </c>
-      <c r="Y73" s="0"/>
-      <c r="Z73" s="0"/>
-      <c r="AA73" s="0"/>
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR J BAR BENT 12'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
@@ -7646,70 +7289,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0"/>
-      <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
-      <c r="F76" s="0"/>
-      <c r="G76" s="0"/>
-      <c r="H76" s="0"/>
-      <c r="I76" s="0"/>
-      <c r="J76" s="0"/>
-      <c r="K76" s="0"/>
-      <c r="L76" s="0"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="0"/>
-      <c r="O76" s="0"/>
-      <c r="P76" s="0"/>
-      <c r="Q76" s="0"/>
-      <c r="R76" s="0"/>
-      <c r="S76" s="0"/>
-      <c r="T76" s="0"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="0"/>
-      <c r="W76" s="0"/>
-      <c r="X76" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y76" s="0"/>
-      <c r="Z76" s="0"/>
-      <c r="AA76" s="0"/>
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="0"/>
-      <c r="B77" s="0"/>
-      <c r="C77" s="0"/>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
-      <c r="L77" s="0"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="0"/>
-      <c r="O77" s="0"/>
-      <c r="P77" s="0"/>
-      <c r="Q77" s="0"/>
-      <c r="R77" s="0"/>
-      <c r="S77" s="0"/>
-      <c r="T77" s="0"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="0"/>
-      <c r="W77" s="0"/>
-      <c r="X77" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR BOTTOM GASKET STRIP BENT 6'</t>
-        </is>
-      </c>
-      <c r="Y77" s="0"/>
-      <c r="Z77" s="0"/>
-      <c r="AA77" s="0"/>
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET STRIP BENT 6'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
@@ -8048,37 +7649,16 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0"/>
-      <c r="B81" s="0"/>
-      <c r="C81" s="0"/>
-      <c r="D81" s="0"/>
-      <c r="E81" s="0"/>
-      <c r="F81" s="0"/>
-      <c r="G81" s="0"/>
-      <c r="H81" s="0"/>
-      <c r="I81" s="0"/>
-      <c r="J81" s="0"/>
-      <c r="K81" s="0"/>
-      <c r="L81" s="0"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="0"/>
-      <c r="O81" s="0"/>
-      <c r="P81" s="0"/>
-      <c r="Q81" s="0"/>
-      <c r="R81" s="0"/>
-      <c r="S81" s="0"/>
-      <c r="T81" s="0"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="0"/>
-      <c r="W81" s="0"/>
-      <c r="X81" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD PICK UP 80" X80"</t>
-        </is>
-      </c>
-      <c r="Y81" s="0"/>
-      <c r="Z81" s="0"/>
-      <c r="AA81" s="0"/>
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PICK UP 80\" X80\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
@@ -8193,37 +7773,16 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0"/>
-      <c r="G83" s="0"/>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
-      <c r="J83" s="0"/>
-      <c r="K83" s="0"/>
-      <c r="L83" s="0"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="0"/>
-      <c r="O83" s="0"/>
-      <c r="P83" s="0"/>
-      <c r="Q83" s="0"/>
-      <c r="R83" s="0"/>
-      <c r="S83" s="0"/>
-      <c r="T83" s="0"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="0"/>
-      <c r="W83" s="0"/>
-      <c r="X83" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DOWN 24"X24"</t>
-        </is>
-      </c>
-      <c r="Y83" s="0"/>
-      <c r="Z83" s="0"/>
-      <c r="AA83" s="0"/>
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DOWN 24\"X24\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
@@ -8338,37 +7897,16 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0"/>
-      <c r="B85" s="0"/>
-      <c r="C85" s="0"/>
-      <c r="D85" s="0"/>
-      <c r="E85" s="0"/>
-      <c r="F85" s="0"/>
-      <c r="G85" s="0"/>
-      <c r="H85" s="0"/>
-      <c r="I85" s="0"/>
-      <c r="J85" s="0"/>
-      <c r="K85" s="0"/>
-      <c r="L85" s="0"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="0"/>
-      <c r="O85" s="0"/>
-      <c r="P85" s="0"/>
-      <c r="Q85" s="0"/>
-      <c r="R85" s="0"/>
-      <c r="S85" s="0"/>
-      <c r="T85" s="0"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="0"/>
-      <c r="W85" s="0"/>
-      <c r="X85" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y85" s="0"/>
-      <c r="Z85" s="0"/>
-      <c r="AA85" s="0"/>
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
@@ -8931,37 +8469,16 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="0"/>
-      <c r="B91" s="0"/>
-      <c r="C91" s="0"/>
-      <c r="D91" s="0"/>
-      <c r="E91" s="0"/>
-      <c r="F91" s="0"/>
-      <c r="G91" s="0"/>
-      <c r="H91" s="0"/>
-      <c r="I91" s="0"/>
-      <c r="J91" s="0"/>
-      <c r="K91" s="0"/>
-      <c r="L91" s="0"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="0"/>
-      <c r="O91" s="0"/>
-      <c r="P91" s="0"/>
-      <c r="Q91" s="0"/>
-      <c r="R91" s="0"/>
-      <c r="S91" s="0"/>
-      <c r="T91" s="0"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="0"/>
-      <c r="W91" s="0"/>
-      <c r="X91" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
-        </is>
-      </c>
-      <c r="Y91" s="0"/>
-      <c r="Z91" s="0"/>
-      <c r="AA91" s="0"/>
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL SPOT", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
@@ -9300,103 +8817,40 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="0"/>
-      <c r="B95" s="0"/>
-      <c r="C95" s="0"/>
-      <c r="D95" s="0"/>
-      <c r="E95" s="0"/>
-      <c r="F95" s="0"/>
-      <c r="G95" s="0"/>
-      <c r="H95" s="0"/>
-      <c r="I95" s="0"/>
-      <c r="J95" s="0"/>
-      <c r="K95" s="0"/>
-      <c r="L95" s="0"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="0"/>
-      <c r="O95" s="0"/>
-      <c r="P95" s="0"/>
-      <c r="Q95" s="0"/>
-      <c r="R95" s="0"/>
-      <c r="S95" s="0"/>
-      <c r="T95" s="0"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="0"/>
-      <c r="W95" s="0"/>
-      <c r="X95" s="0" t="inlineStr">
-        <is>
-          <t>DOOR BOTTOM RAIL CRACKET 4" &amp; 3" AT 2 PLASE,</t>
-        </is>
-      </c>
-      <c r="Y95" s="0"/>
-      <c r="Z95" s="0"/>
-      <c r="AA95" s="0"/>
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "DOOR BOTTOM RAIL CRACKET 4\" &amp; 3\" AT 2 PLASE,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="0"/>
-      <c r="B96" s="0"/>
-      <c r="C96" s="0"/>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
-      <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
-      <c r="J96" s="0"/>
-      <c r="K96" s="0"/>
-      <c r="L96" s="0"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="0"/>
-      <c r="O96" s="0"/>
-      <c r="P96" s="0"/>
-      <c r="Q96" s="0"/>
-      <c r="R96" s="0"/>
-      <c r="S96" s="0"/>
-      <c r="T96" s="0"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="0"/>
-      <c r="W96" s="0"/>
-      <c r="X96" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK</t>
-        </is>
-      </c>
-      <c r="Y96" s="0"/>
-      <c r="Z96" s="0"/>
-      <c r="AA96" s="0"/>
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="0"/>
-      <c r="B97" s="0"/>
-      <c r="C97" s="0"/>
-      <c r="D97" s="0"/>
-      <c r="E97" s="0"/>
-      <c r="F97" s="0"/>
-      <c r="G97" s="0"/>
-      <c r="H97" s="0"/>
-      <c r="I97" s="0"/>
-      <c r="J97" s="0"/>
-      <c r="K97" s="0"/>
-      <c r="L97" s="0"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="0"/>
-      <c r="O97" s="0"/>
-      <c r="P97" s="0"/>
-      <c r="Q97" s="0"/>
-      <c r="R97" s="0"/>
-      <c r="S97" s="0"/>
-      <c r="T97" s="0"/>
-      <c r="U97" s="4"/>
-      <c r="V97" s="0"/>
-      <c r="W97" s="0"/>
-      <c r="X97" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y97" s="0"/>
-      <c r="Z97" s="0"/>
-      <c r="AA97" s="0"/>
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
@@ -9847,37 +9301,16 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0"/>
-      <c r="B102" s="0"/>
-      <c r="C102" s="0"/>
-      <c r="D102" s="0"/>
-      <c r="E102" s="0"/>
-      <c r="F102" s="0"/>
-      <c r="G102" s="0"/>
-      <c r="H102" s="0"/>
-      <c r="I102" s="0"/>
-      <c r="J102" s="0"/>
-      <c r="K102" s="0"/>
-      <c r="L102" s="0"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="0"/>
-      <c r="O102" s="0"/>
-      <c r="P102" s="0"/>
-      <c r="Q102" s="0"/>
-      <c r="R102" s="0"/>
-      <c r="S102" s="0"/>
-      <c r="T102" s="0"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="0"/>
-      <c r="W102" s="0"/>
-      <c r="X102" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y102" s="0"/>
-      <c r="Z102" s="0"/>
-      <c r="AA102" s="0"/>
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
@@ -9992,37 +9425,16 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="0"/>
-      <c r="B104" s="0"/>
-      <c r="C104" s="0"/>
-      <c r="D104" s="0"/>
-      <c r="E104" s="0"/>
-      <c r="F104" s="0"/>
-      <c r="G104" s="0"/>
-      <c r="H104" s="0"/>
-      <c r="I104" s="0"/>
-      <c r="J104" s="0"/>
-      <c r="K104" s="0"/>
-      <c r="L104" s="0"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="0"/>
-      <c r="O104" s="0"/>
-      <c r="P104" s="0"/>
-      <c r="Q104" s="0"/>
-      <c r="R104" s="0"/>
-      <c r="S104" s="0"/>
-      <c r="T104" s="0"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="0"/>
-      <c r="W104" s="0"/>
-      <c r="X104" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR HINGERS BENT 02 PCS </t>
-        </is>
-      </c>
-      <c r="Y104" s="0"/>
-      <c r="Z104" s="0"/>
-      <c r="AA104" s="0"/>
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR HINGERS BENT 02 PCS ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
@@ -10249,37 +9661,16 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="0"/>
-      <c r="B107" s="0"/>
-      <c r="C107" s="0"/>
-      <c r="D107" s="0"/>
-      <c r="E107" s="0"/>
-      <c r="F107" s="0"/>
-      <c r="G107" s="0"/>
-      <c r="H107" s="0"/>
-      <c r="I107" s="0"/>
-      <c r="J107" s="0"/>
-      <c r="K107" s="0"/>
-      <c r="L107" s="0"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="0"/>
-      <c r="O107" s="0"/>
-      <c r="P107" s="0"/>
-      <c r="Q107" s="0"/>
-      <c r="R107" s="0"/>
-      <c r="S107" s="0"/>
-      <c r="T107" s="0"/>
-      <c r="U107" s="4"/>
-      <c r="V107" s="0"/>
-      <c r="W107" s="0"/>
-      <c r="X107" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y107" s="0"/>
-      <c r="Z107" s="0"/>
-      <c r="AA107" s="0"/>
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
@@ -10506,37 +9897,16 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0"/>
-      <c r="B110" s="0"/>
-      <c r="C110" s="0"/>
-      <c r="D110" s="0"/>
-      <c r="E110" s="0"/>
-      <c r="F110" s="0"/>
-      <c r="G110" s="0"/>
-      <c r="H110" s="0"/>
-      <c r="I110" s="0"/>
-      <c r="J110" s="0"/>
-      <c r="K110" s="0"/>
-      <c r="L110" s="0"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="0"/>
-      <c r="O110" s="0"/>
-      <c r="P110" s="0"/>
-      <c r="Q110" s="0"/>
-      <c r="R110" s="0"/>
-      <c r="S110" s="0"/>
-      <c r="T110" s="0"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="0"/>
-      <c r="W110" s="0"/>
-      <c r="X110" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD PICK-UP 12"X 36" AT 2 PLC &amp; SCRWO PICKUP 04 PCS &amp; MISSING 04 PCS</t>
-        </is>
-      </c>
-      <c r="Y110" s="0"/>
-      <c r="Z110" s="0"/>
-      <c r="AA110" s="0"/>
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PICK-UP 12\"X 36\" AT 2 PLC &amp; SCRWO PICKUP 04 PCS &amp; MISSING 04 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
@@ -10651,37 +10021,16 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0"/>
-      <c r="B112" s="0"/>
-      <c r="C112" s="0"/>
-      <c r="D112" s="0"/>
-      <c r="E112" s="0"/>
-      <c r="F112" s="0"/>
-      <c r="G112" s="0"/>
-      <c r="H112" s="0"/>
-      <c r="I112" s="0"/>
-      <c r="J112" s="0"/>
-      <c r="K112" s="0"/>
-      <c r="L112" s="0"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="0"/>
-      <c r="O112" s="0"/>
-      <c r="P112" s="0"/>
-      <c r="Q112" s="0"/>
-      <c r="R112" s="0"/>
-      <c r="S112" s="0"/>
-      <c r="T112" s="0"/>
-      <c r="U112" s="4"/>
-      <c r="V112" s="0"/>
-      <c r="W112" s="0"/>
-      <c r="X112" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS FITTING 10 PES</t>
-        </is>
-      </c>
-      <c r="Y112" s="0"/>
-      <c r="Z112" s="0"/>
-      <c r="AA112" s="0"/>
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 10 PES", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
@@ -11132,37 +10481,16 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="0"/>
-      <c r="B117" s="0"/>
-      <c r="C117" s="0"/>
-      <c r="D117" s="0"/>
-      <c r="E117" s="0"/>
-      <c r="F117" s="0"/>
-      <c r="G117" s="0"/>
-      <c r="H117" s="0"/>
-      <c r="I117" s="0"/>
-      <c r="J117" s="0"/>
-      <c r="K117" s="0"/>
-      <c r="L117" s="0"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="0"/>
-      <c r="O117" s="0"/>
-      <c r="P117" s="0"/>
-      <c r="Q117" s="0"/>
-      <c r="R117" s="0"/>
-      <c r="S117" s="0"/>
-      <c r="T117" s="0"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="0"/>
-      <c r="W117" s="0"/>
-      <c r="X117" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR HINGES BENT 04 PCS ( DOOR UNLOCK)</t>
-        </is>
-      </c>
-      <c r="Y117" s="0"/>
-      <c r="Z117" s="0"/>
-      <c r="AA117" s="0"/>
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR HINGES BENT 04 PCS ( DOOR UNLOCK)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
@@ -11389,37 +10717,16 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="0"/>
-      <c r="B120" s="0"/>
-      <c r="C120" s="0"/>
-      <c r="D120" s="0"/>
-      <c r="E120" s="0"/>
-      <c r="F120" s="0"/>
-      <c r="G120" s="0"/>
-      <c r="H120" s="0"/>
-      <c r="I120" s="0"/>
-      <c r="J120" s="0"/>
-      <c r="K120" s="0"/>
-      <c r="L120" s="0"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="0"/>
-      <c r="O120" s="0"/>
-      <c r="P120" s="0"/>
-      <c r="Q120" s="0"/>
-      <c r="R120" s="0"/>
-      <c r="S120" s="0"/>
-      <c r="T120" s="0"/>
-      <c r="U120" s="4"/>
-      <c r="V120" s="0"/>
-      <c r="W120" s="0"/>
-      <c r="X120" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR HINGES BENT 04 PCS ( DOOR UNLOCK)</t>
-        </is>
-      </c>
-      <c r="Y120" s="0"/>
-      <c r="Z120" s="0"/>
-      <c r="AA120" s="0"/>
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR HINGES BENT 04 PCS ( DOOR UNLOCK)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
@@ -11646,37 +10953,16 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="0"/>
-      <c r="B123" s="0"/>
-      <c r="C123" s="0"/>
-      <c r="D123" s="0"/>
-      <c r="E123" s="0"/>
-      <c r="F123" s="0"/>
-      <c r="G123" s="0"/>
-      <c r="H123" s="0"/>
-      <c r="I123" s="0"/>
-      <c r="J123" s="0"/>
-      <c r="K123" s="0"/>
-      <c r="L123" s="0"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="0"/>
-      <c r="O123" s="0"/>
-      <c r="P123" s="0"/>
-      <c r="Q123" s="0"/>
-      <c r="R123" s="0"/>
-      <c r="S123" s="0"/>
-      <c r="T123" s="0"/>
-      <c r="U123" s="4"/>
-      <c r="V123" s="0"/>
-      <c r="W123" s="0"/>
-      <c r="X123" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL  CRACKED 6" AT 02 PLS</t>
-        </is>
-      </c>
-      <c r="Y123" s="0"/>
-      <c r="Z123" s="0"/>
-      <c r="AA123" s="0"/>
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL  CRACKED 6\" AT 02 PLS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
@@ -12463,70 +11749,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="0"/>
-      <c r="B131" s="0"/>
-      <c r="C131" s="0"/>
-      <c r="D131" s="0"/>
-      <c r="E131" s="0"/>
-      <c r="F131" s="0"/>
-      <c r="G131" s="0"/>
-      <c r="H131" s="0"/>
-      <c r="I131" s="0"/>
-      <c r="J131" s="0"/>
-      <c r="K131" s="0"/>
-      <c r="L131" s="0"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="0"/>
-      <c r="O131" s="0"/>
-      <c r="P131" s="0"/>
-      <c r="Q131" s="0"/>
-      <c r="R131" s="0"/>
-      <c r="S131" s="0"/>
-      <c r="T131" s="0"/>
-      <c r="U131" s="4"/>
-      <c r="V131" s="0"/>
-      <c r="W131" s="0"/>
-      <c r="X131" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD PICK UP 12"X12"</t>
-        </is>
-      </c>
-      <c r="Y131" s="0"/>
-      <c r="Z131" s="0"/>
-      <c r="AA131" s="0"/>
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PICK UP 12\"X12\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="0"/>
-      <c r="B132" s="0"/>
-      <c r="C132" s="0"/>
-      <c r="D132" s="0"/>
-      <c r="E132" s="0"/>
-      <c r="F132" s="0"/>
-      <c r="G132" s="0"/>
-      <c r="H132" s="0"/>
-      <c r="I132" s="0"/>
-      <c r="J132" s="0"/>
-      <c r="K132" s="0"/>
-      <c r="L132" s="0"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="0"/>
-      <c r="O132" s="0"/>
-      <c r="P132" s="0"/>
-      <c r="Q132" s="0"/>
-      <c r="R132" s="0"/>
-      <c r="S132" s="0"/>
-      <c r="T132" s="0"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="0"/>
-      <c r="W132" s="0"/>
-      <c r="X132" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY &amp; SCRATHA &amp; RUSTED</t>
-        </is>
-      </c>
-      <c r="Y132" s="0"/>
-      <c r="Z132" s="0"/>
-      <c r="AA132" s="0"/>
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY &amp; SCRATHA &amp; RUSTED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
@@ -12865,37 +12109,16 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="0"/>
-      <c r="B136" s="0"/>
-      <c r="C136" s="0"/>
-      <c r="D136" s="0"/>
-      <c r="E136" s="0"/>
-      <c r="F136" s="0"/>
-      <c r="G136" s="0"/>
-      <c r="H136" s="0"/>
-      <c r="I136" s="0"/>
-      <c r="J136" s="0"/>
-      <c r="K136" s="0"/>
-      <c r="L136" s="0"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="0"/>
-      <c r="O136" s="0"/>
-      <c r="P136" s="0"/>
-      <c r="Q136" s="0"/>
-      <c r="R136" s="0"/>
-      <c r="S136" s="0"/>
-      <c r="T136" s="0"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="0"/>
-      <c r="W136" s="0"/>
-      <c r="X136" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y136" s="0"/>
-      <c r="Z136" s="0"/>
-      <c r="AA136" s="0"/>
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
@@ -13458,103 +12681,40 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="0"/>
-      <c r="B142" s="0"/>
-      <c r="C142" s="0"/>
-      <c r="D142" s="0"/>
-      <c r="E142" s="0"/>
-      <c r="F142" s="0"/>
-      <c r="G142" s="0"/>
-      <c r="H142" s="0"/>
-      <c r="I142" s="0"/>
-      <c r="J142" s="0"/>
-      <c r="K142" s="0"/>
-      <c r="L142" s="0"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="0"/>
-      <c r="O142" s="0"/>
-      <c r="P142" s="0"/>
-      <c r="Q142" s="0"/>
-      <c r="R142" s="0"/>
-      <c r="S142" s="0"/>
-      <c r="T142" s="0"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="0"/>
-      <c r="W142" s="0"/>
-      <c r="X142" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR BOTTOM GASKET CUT 2"</t>
-        </is>
-      </c>
-      <c r="Y142" s="0"/>
-      <c r="Z142" s="0"/>
-      <c r="AA142" s="0"/>
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET CUT 2\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="0"/>
-      <c r="B143" s="0"/>
-      <c r="C143" s="0"/>
-      <c r="D143" s="0"/>
-      <c r="E143" s="0"/>
-      <c r="F143" s="0"/>
-      <c r="G143" s="0"/>
-      <c r="H143" s="0"/>
-      <c r="I143" s="0"/>
-      <c r="J143" s="0"/>
-      <c r="K143" s="0"/>
-      <c r="L143" s="0"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="0"/>
-      <c r="O143" s="0"/>
-      <c r="P143" s="0"/>
-      <c r="Q143" s="0"/>
-      <c r="R143" s="0"/>
-      <c r="S143" s="0"/>
-      <c r="T143" s="0"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="0"/>
-      <c r="W143" s="0"/>
-      <c r="X143" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR HINGS ARIA CORRODED</t>
-        </is>
-      </c>
-      <c r="Y143" s="0"/>
-      <c r="Z143" s="0"/>
-      <c r="AA143" s="0"/>
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR HINGS ARIA CORRODED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="0"/>
-      <c r="B144" s="0"/>
-      <c r="C144" s="0"/>
-      <c r="D144" s="0"/>
-      <c r="E144" s="0"/>
-      <c r="F144" s="0"/>
-      <c r="G144" s="0"/>
-      <c r="H144" s="0"/>
-      <c r="I144" s="0"/>
-      <c r="J144" s="0"/>
-      <c r="K144" s="0"/>
-      <c r="L144" s="0"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="0"/>
-      <c r="O144" s="0"/>
-      <c r="P144" s="0"/>
-      <c r="Q144" s="0"/>
-      <c r="R144" s="0"/>
-      <c r="S144" s="0"/>
-      <c r="T144" s="0"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="0"/>
-      <c r="W144" s="0"/>
-      <c r="X144" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED (BADLY)</t>
-        </is>
-      </c>
-      <c r="Y144" s="0"/>
-      <c r="Z144" s="0"/>
-      <c r="AA144" s="0"/>
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED (BADLY)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
@@ -13669,37 +12829,16 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="0"/>
-      <c r="B146" s="0"/>
-      <c r="C146" s="0"/>
-      <c r="D146" s="0"/>
-      <c r="E146" s="0"/>
-      <c r="F146" s="0"/>
-      <c r="G146" s="0"/>
-      <c r="H146" s="0"/>
-      <c r="I146" s="0"/>
-      <c r="J146" s="0"/>
-      <c r="K146" s="0"/>
-      <c r="L146" s="0"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="0"/>
-      <c r="O146" s="0"/>
-      <c r="P146" s="0"/>
-      <c r="Q146" s="0"/>
-      <c r="R146" s="0"/>
-      <c r="S146" s="0"/>
-      <c r="T146" s="0"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="0"/>
-      <c r="W146" s="0"/>
-      <c r="X146" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK DIRTY </t>
-        </is>
-      </c>
-      <c r="Y146" s="0"/>
-      <c r="Z146" s="0"/>
-      <c r="AA146" s="0"/>
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK DIRTY ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
@@ -14150,37 +13289,16 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="0"/>
-      <c r="B151" s="0"/>
-      <c r="C151" s="0"/>
-      <c r="D151" s="0"/>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
-      <c r="H151" s="0"/>
-      <c r="I151" s="0"/>
-      <c r="J151" s="0"/>
-      <c r="K151" s="0"/>
-      <c r="L151" s="0"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="0"/>
-      <c r="O151" s="0"/>
-      <c r="P151" s="0"/>
-      <c r="Q151" s="0"/>
-      <c r="R151" s="0"/>
-      <c r="S151" s="0"/>
-      <c r="T151" s="0"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="0"/>
-      <c r="W151" s="0"/>
-      <c r="X151" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y151" s="0"/>
-      <c r="Z151" s="0"/>
-      <c r="AA151" s="0"/>
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
@@ -14407,70 +13525,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="0"/>
-      <c r="B154" s="0"/>
-      <c r="C154" s="0"/>
-      <c r="D154" s="0"/>
-      <c r="E154" s="0"/>
-      <c r="F154" s="0"/>
-      <c r="G154" s="0"/>
-      <c r="H154" s="0"/>
-      <c r="I154" s="0"/>
-      <c r="J154" s="0"/>
-      <c r="K154" s="0"/>
-      <c r="L154" s="0"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="0"/>
-      <c r="O154" s="0"/>
-      <c r="P154" s="0"/>
-      <c r="Q154" s="0"/>
-      <c r="R154" s="0"/>
-      <c r="S154" s="0"/>
-      <c r="T154" s="0"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="0"/>
-      <c r="W154" s="0"/>
-      <c r="X154" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS FITTING 06 PES</t>
-        </is>
-      </c>
-      <c r="Y154" s="0"/>
-      <c r="Z154" s="0"/>
-      <c r="AA154" s="0"/>
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 06 PES", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="0"/>
-      <c r="B155" s="0"/>
-      <c r="C155" s="0"/>
-      <c r="D155" s="0"/>
-      <c r="E155" s="0"/>
-      <c r="F155" s="0"/>
-      <c r="G155" s="0"/>
-      <c r="H155" s="0"/>
-      <c r="I155" s="0"/>
-      <c r="J155" s="0"/>
-      <c r="K155" s="0"/>
-      <c r="L155" s="0"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="0"/>
-      <c r="O155" s="0"/>
-      <c r="P155" s="0"/>
-      <c r="Q155" s="0"/>
-      <c r="R155" s="0"/>
-      <c r="S155" s="0"/>
-      <c r="T155" s="0"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="0"/>
-      <c r="W155" s="0"/>
-      <c r="X155" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  SCRATCH</t>
-        </is>
-      </c>
-      <c r="Y155" s="0"/>
-      <c r="Z155" s="0"/>
-      <c r="AA155" s="0"/>
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BLACK STAIN &amp;  SCRATCH", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
@@ -15145,37 +14221,16 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="0"/>
-      <c r="B162" s="0"/>
-      <c r="C162" s="0"/>
-      <c r="D162" s="0"/>
-      <c r="E162" s="0"/>
-      <c r="F162" s="0"/>
-      <c r="G162" s="0"/>
-      <c r="H162" s="0"/>
-      <c r="I162" s="0"/>
-      <c r="J162" s="0"/>
-      <c r="K162" s="0"/>
-      <c r="L162" s="0"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="0"/>
-      <c r="O162" s="0"/>
-      <c r="P162" s="0"/>
-      <c r="Q162" s="0"/>
-      <c r="R162" s="0"/>
-      <c r="S162" s="0"/>
-      <c r="T162" s="0"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="0"/>
-      <c r="W162" s="0"/>
-      <c r="X162" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y162" s="0"/>
-      <c r="Z162" s="0"/>
-      <c r="AA162" s="0"/>
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
@@ -15378,37 +14433,16 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="0"/>
-      <c r="B165" s="0"/>
-      <c r="C165" s="0"/>
-      <c r="D165" s="0"/>
-      <c r="E165" s="0"/>
-      <c r="F165" s="0"/>
-      <c r="G165" s="0"/>
-      <c r="H165" s="0"/>
-      <c r="I165" s="0"/>
-      <c r="J165" s="0"/>
-      <c r="K165" s="0"/>
-      <c r="L165" s="0"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="0"/>
-      <c r="O165" s="0"/>
-      <c r="P165" s="0"/>
-      <c r="Q165" s="0"/>
-      <c r="R165" s="0"/>
-      <c r="S165" s="0"/>
-      <c r="T165" s="0"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="0"/>
-      <c r="W165" s="0"/>
-      <c r="X165" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR BOTTOM STRIP BENT 12' &amp; GASKET MISSING 4'</t>
-        </is>
-      </c>
-      <c r="Y165" s="0"/>
-      <c r="Z165" s="0"/>
-      <c r="AA165" s="0"/>
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM STRIP BENT 12' &amp; GASKET MISSING 4'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
@@ -15859,37 +14893,16 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="0"/>
-      <c r="B170" s="0"/>
-      <c r="C170" s="0"/>
-      <c r="D170" s="0"/>
-      <c r="E170" s="0"/>
-      <c r="F170" s="0"/>
-      <c r="G170" s="0"/>
-      <c r="H170" s="0"/>
-      <c r="I170" s="0"/>
-      <c r="J170" s="0"/>
-      <c r="K170" s="0"/>
-      <c r="L170" s="0"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="0"/>
-      <c r="O170" s="0"/>
-      <c r="P170" s="0"/>
-      <c r="Q170" s="0"/>
-      <c r="R170" s="0"/>
-      <c r="S170" s="0"/>
-      <c r="T170" s="0"/>
-      <c r="U170" s="4"/>
-      <c r="V170" s="0"/>
-      <c r="W170" s="0"/>
-      <c r="X170" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS FITTINGS 6 PCS,</t>
-        </is>
-      </c>
-      <c r="Y170" s="0"/>
-      <c r="Z170" s="0"/>
-      <c r="AA170" s="0"/>
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS FITTINGS 6 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
@@ -16004,37 +15017,16 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="0"/>
-      <c r="B172" s="0"/>
-      <c r="C172" s="0"/>
-      <c r="D172" s="0"/>
-      <c r="E172" s="0"/>
-      <c r="F172" s="0"/>
-      <c r="G172" s="0"/>
-      <c r="H172" s="0"/>
-      <c r="I172" s="0"/>
-      <c r="J172" s="0"/>
-      <c r="K172" s="0"/>
-      <c r="L172" s="0"/>
-      <c r="M172" s="4"/>
-      <c r="N172" s="0"/>
-      <c r="O172" s="0"/>
-      <c r="P172" s="0"/>
-      <c r="Q172" s="0"/>
-      <c r="R172" s="0"/>
-      <c r="S172" s="0"/>
-      <c r="T172" s="0"/>
-      <c r="U172" s="4"/>
-      <c r="V172" s="0"/>
-      <c r="W172" s="0"/>
-      <c r="X172" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL CUT 8"</t>
-        </is>
-      </c>
-      <c r="Y172" s="0"/>
-      <c r="Z172" s="0"/>
-      <c r="AA172" s="0"/>
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL CUT 8\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
@@ -16261,37 +15253,16 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="0"/>
-      <c r="B175" s="0"/>
-      <c r="C175" s="0"/>
-      <c r="D175" s="0"/>
-      <c r="E175" s="0"/>
-      <c r="F175" s="0"/>
-      <c r="G175" s="0"/>
-      <c r="H175" s="0"/>
-      <c r="I175" s="0"/>
-      <c r="J175" s="0"/>
-      <c r="K175" s="0"/>
-      <c r="L175" s="0"/>
-      <c r="M175" s="4"/>
-      <c r="N175" s="0"/>
-      <c r="O175" s="0"/>
-      <c r="P175" s="0"/>
-      <c r="Q175" s="0"/>
-      <c r="R175" s="0"/>
-      <c r="S175" s="0"/>
-      <c r="T175" s="0"/>
-      <c r="U175" s="4"/>
-      <c r="V175" s="0"/>
-      <c r="W175" s="0"/>
-      <c r="X175" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR J-BAR BENT 8"</t>
-        </is>
-      </c>
-      <c r="Y175" s="0"/>
-      <c r="Z175" s="0"/>
-      <c r="AA175" s="0"/>
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR J-BAR BENT 8\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
@@ -16630,37 +15601,16 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="0"/>
-      <c r="B179" s="0"/>
-      <c r="C179" s="0"/>
-      <c r="D179" s="0"/>
-      <c r="E179" s="0"/>
-      <c r="F179" s="0"/>
-      <c r="G179" s="0"/>
-      <c r="H179" s="0"/>
-      <c r="I179" s="0"/>
-      <c r="J179" s="0"/>
-      <c r="K179" s="0"/>
-      <c r="L179" s="0"/>
-      <c r="M179" s="4"/>
-      <c r="N179" s="0"/>
-      <c r="O179" s="0"/>
-      <c r="P179" s="0"/>
-      <c r="Q179" s="0"/>
-      <c r="R179" s="0"/>
-      <c r="S179" s="0"/>
-      <c r="T179" s="0"/>
-      <c r="U179" s="4"/>
-      <c r="V179" s="0"/>
-      <c r="W179" s="0"/>
-      <c r="X179" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y179" s="0"/>
-      <c r="Z179" s="0"/>
-      <c r="AA179" s="0"/>
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
@@ -17559,70 +16509,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="0"/>
-      <c r="B188" s="0"/>
-      <c r="C188" s="0"/>
-      <c r="D188" s="0"/>
-      <c r="E188" s="0"/>
-      <c r="F188" s="0"/>
-      <c r="G188" s="0"/>
-      <c r="H188" s="0"/>
-      <c r="I188" s="0"/>
-      <c r="J188" s="0"/>
-      <c r="K188" s="0"/>
-      <c r="L188" s="0"/>
-      <c r="M188" s="4"/>
-      <c r="N188" s="0"/>
-      <c r="O188" s="0"/>
-      <c r="P188" s="0"/>
-      <c r="Q188" s="0"/>
-      <c r="R188" s="0"/>
-      <c r="S188" s="0"/>
-      <c r="T188" s="0"/>
-      <c r="U188" s="4"/>
-      <c r="V188" s="0"/>
-      <c r="W188" s="0"/>
-      <c r="X188" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL PATCH IN AT VARIOUS PLS</t>
-        </is>
-      </c>
-      <c r="Y188" s="0"/>
-      <c r="Z188" s="0"/>
-      <c r="AA188" s="0"/>
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL PATCH IN AT VARIOUS PLS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="0"/>
-      <c r="B189" s="0"/>
-      <c r="C189" s="0"/>
-      <c r="D189" s="0"/>
-      <c r="E189" s="0"/>
-      <c r="F189" s="0"/>
-      <c r="G189" s="0"/>
-      <c r="H189" s="0"/>
-      <c r="I189" s="0"/>
-      <c r="J189" s="0"/>
-      <c r="K189" s="0"/>
-      <c r="L189" s="0"/>
-      <c r="M189" s="4"/>
-      <c r="N189" s="0"/>
-      <c r="O189" s="0"/>
-      <c r="P189" s="0"/>
-      <c r="Q189" s="0"/>
-      <c r="R189" s="0"/>
-      <c r="S189" s="0"/>
-      <c r="T189" s="0"/>
-      <c r="U189" s="4"/>
-      <c r="V189" s="0"/>
-      <c r="W189" s="0"/>
-      <c r="X189" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR BOTTOM GASKET AREA CORRODED HOLE 4'X2'</t>
-        </is>
-      </c>
-      <c r="Y189" s="0"/>
-      <c r="Z189" s="0"/>
-      <c r="AA189" s="0"/>
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET AREA CORRODED HOLE 4'X2'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="n">
@@ -17737,37 +16645,16 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="0"/>
-      <c r="B191" s="0"/>
-      <c r="C191" s="0"/>
-      <c r="D191" s="0"/>
-      <c r="E191" s="0"/>
-      <c r="F191" s="0"/>
-      <c r="G191" s="0"/>
-      <c r="H191" s="0"/>
-      <c r="I191" s="0"/>
-      <c r="J191" s="0"/>
-      <c r="K191" s="0"/>
-      <c r="L191" s="0"/>
-      <c r="M191" s="4"/>
-      <c r="N191" s="0"/>
-      <c r="O191" s="0"/>
-      <c r="P191" s="0"/>
-      <c r="Q191" s="0"/>
-      <c r="R191" s="0"/>
-      <c r="S191" s="0"/>
-      <c r="T191" s="0"/>
-      <c r="U191" s="4"/>
-      <c r="V191" s="0"/>
-      <c r="W191" s="0"/>
-      <c r="X191" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD WOODEN FITTING 02 PCS</t>
-        </is>
-      </c>
-      <c r="Y191" s="0"/>
-      <c r="Z191" s="0"/>
-      <c r="AA191" s="0"/>
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD WOODEN FITTING 02 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="n">
@@ -18058,37 +16945,16 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="0"/>
-      <c r="B195" s="0"/>
-      <c r="C195" s="0"/>
-      <c r="D195" s="0"/>
-      <c r="E195" s="0"/>
-      <c r="F195" s="0"/>
-      <c r="G195" s="0"/>
-      <c r="H195" s="0"/>
-      <c r="I195" s="0"/>
-      <c r="J195" s="0"/>
-      <c r="K195" s="0"/>
-      <c r="L195" s="0"/>
-      <c r="M195" s="4"/>
-      <c r="N195" s="0"/>
-      <c r="O195" s="0"/>
-      <c r="P195" s="0"/>
-      <c r="Q195" s="0"/>
-      <c r="R195" s="0"/>
-      <c r="S195" s="0"/>
-      <c r="T195" s="0"/>
-      <c r="U195" s="4"/>
-      <c r="V195" s="0"/>
-      <c r="W195" s="0"/>
-      <c r="X195" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED</t>
-        </is>
-      </c>
-      <c r="Y195" s="0"/>
-      <c r="Z195" s="0"/>
-      <c r="AA195" s="0"/>
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="n">
@@ -18203,37 +17069,16 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="0"/>
-      <c r="B197" s="0"/>
-      <c r="C197" s="0"/>
-      <c r="D197" s="0"/>
-      <c r="E197" s="0"/>
-      <c r="F197" s="0"/>
-      <c r="G197" s="0"/>
-      <c r="H197" s="0"/>
-      <c r="I197" s="0"/>
-      <c r="J197" s="0"/>
-      <c r="K197" s="0"/>
-      <c r="L197" s="0"/>
-      <c r="M197" s="4"/>
-      <c r="N197" s="0"/>
-      <c r="O197" s="0"/>
-      <c r="P197" s="0"/>
-      <c r="Q197" s="0"/>
-      <c r="R197" s="0"/>
-      <c r="S197" s="0"/>
-      <c r="T197" s="0"/>
-      <c r="U197" s="4"/>
-      <c r="V197" s="0"/>
-      <c r="W197" s="0"/>
-      <c r="X197" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y197" s="0"/>
-      <c r="Z197" s="0"/>
-      <c r="AA197" s="0"/>
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="n">
@@ -18348,70 +17193,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="0"/>
-      <c r="B199" s="0"/>
-      <c r="C199" s="0"/>
-      <c r="D199" s="0"/>
-      <c r="E199" s="0"/>
-      <c r="F199" s="0"/>
-      <c r="G199" s="0"/>
-      <c r="H199" s="0"/>
-      <c r="I199" s="0"/>
-      <c r="J199" s="0"/>
-      <c r="K199" s="0"/>
-      <c r="L199" s="0"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="0"/>
-      <c r="O199" s="0"/>
-      <c r="P199" s="0"/>
-      <c r="Q199" s="0"/>
-      <c r="R199" s="0"/>
-      <c r="S199" s="0"/>
-      <c r="T199" s="0"/>
-      <c r="U199" s="4"/>
-      <c r="V199" s="0"/>
-      <c r="W199" s="0"/>
-      <c r="X199" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK DIRTY &amp; SCRATCH</t>
-        </is>
-      </c>
-      <c r="Y199" s="0"/>
-      <c r="Z199" s="0"/>
-      <c r="AA199" s="0"/>
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK DIRTY &amp; SCRATCH", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="0"/>
-      <c r="B200" s="0"/>
-      <c r="C200" s="0"/>
-      <c r="D200" s="0"/>
-      <c r="E200" s="0"/>
-      <c r="F200" s="0"/>
-      <c r="G200" s="0"/>
-      <c r="H200" s="0"/>
-      <c r="I200" s="0"/>
-      <c r="J200" s="0"/>
-      <c r="K200" s="0"/>
-      <c r="L200" s="0"/>
-      <c r="M200" s="4"/>
-      <c r="N200" s="0"/>
-      <c r="O200" s="0"/>
-      <c r="P200" s="0"/>
-      <c r="Q200" s="0"/>
-      <c r="R200" s="0"/>
-      <c r="S200" s="0"/>
-      <c r="T200" s="0"/>
-      <c r="U200" s="4"/>
-      <c r="V200" s="0"/>
-      <c r="W200" s="0"/>
-      <c r="X200" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED</t>
-        </is>
-      </c>
-      <c r="Y200" s="0"/>
-      <c r="Z200" s="0"/>
-      <c r="AA200" s="0"/>
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="n">
@@ -18750,37 +17553,16 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="0"/>
-      <c r="B204" s="0"/>
-      <c r="C204" s="0"/>
-      <c r="D204" s="0"/>
-      <c r="E204" s="0"/>
-      <c r="F204" s="0"/>
-      <c r="G204" s="0"/>
-      <c r="H204" s="0"/>
-      <c r="I204" s="0"/>
-      <c r="J204" s="0"/>
-      <c r="K204" s="0"/>
-      <c r="L204" s="0"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="0"/>
-      <c r="O204" s="0"/>
-      <c r="P204" s="0"/>
-      <c r="Q204" s="0"/>
-      <c r="R204" s="0"/>
-      <c r="S204" s="0"/>
-      <c r="T204" s="0"/>
-      <c r="U204" s="4"/>
-      <c r="V204" s="0"/>
-      <c r="W204" s="0"/>
-      <c r="X204" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED &amp; CORROSION</t>
-        </is>
-      </c>
-      <c r="Y204" s="0"/>
-      <c r="Z204" s="0"/>
-      <c r="AA204" s="0"/>
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED &amp; CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="n">
@@ -19119,37 +17901,16 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="0"/>
-      <c r="B208" s="0"/>
-      <c r="C208" s="0"/>
-      <c r="D208" s="0"/>
-      <c r="E208" s="0"/>
-      <c r="F208" s="0"/>
-      <c r="G208" s="0"/>
-      <c r="H208" s="0"/>
-      <c r="I208" s="0"/>
-      <c r="J208" s="0"/>
-      <c r="K208" s="0"/>
-      <c r="L208" s="0"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="0"/>
-      <c r="O208" s="0"/>
-      <c r="P208" s="0"/>
-      <c r="Q208" s="0"/>
-      <c r="R208" s="0"/>
-      <c r="S208" s="0"/>
-      <c r="T208" s="0"/>
-      <c r="U208" s="4"/>
-      <c r="V208" s="0"/>
-      <c r="W208" s="0"/>
-      <c r="X208" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD STEEL PLATE FITTINGS 20"X6" WITH BROKEN</t>
-        </is>
-      </c>
-      <c r="Y208" s="0"/>
-      <c r="Z208" s="0"/>
-      <c r="AA208" s="0"/>
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD STEEL PLATE FITTINGS 20\"X6\" WITH BROKEN", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="n">
@@ -19264,37 +18025,16 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="0"/>
-      <c r="B210" s="0"/>
-      <c r="C210" s="0"/>
-      <c r="D210" s="0"/>
-      <c r="E210" s="0"/>
-      <c r="F210" s="0"/>
-      <c r="G210" s="0"/>
-      <c r="H210" s="0"/>
-      <c r="I210" s="0"/>
-      <c r="J210" s="0"/>
-      <c r="K210" s="0"/>
-      <c r="L210" s="0"/>
-      <c r="M210" s="4"/>
-      <c r="N210" s="0"/>
-      <c r="O210" s="0"/>
-      <c r="P210" s="0"/>
-      <c r="Q210" s="0"/>
-      <c r="R210" s="0"/>
-      <c r="S210" s="0"/>
-      <c r="T210" s="0"/>
-      <c r="U210" s="4"/>
-      <c r="V210" s="0"/>
-      <c r="W210" s="0"/>
-      <c r="X210" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y210" s="0"/>
-      <c r="Z210" s="0"/>
-      <c r="AA210" s="0"/>
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="n">
@@ -19857,70 +18597,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="0"/>
-      <c r="B216" s="0"/>
-      <c r="C216" s="0"/>
-      <c r="D216" s="0"/>
-      <c r="E216" s="0"/>
-      <c r="F216" s="0"/>
-      <c r="G216" s="0"/>
-      <c r="H216" s="0"/>
-      <c r="I216" s="0"/>
-      <c r="J216" s="0"/>
-      <c r="K216" s="0"/>
-      <c r="L216" s="0"/>
-      <c r="M216" s="4"/>
-      <c r="N216" s="0"/>
-      <c r="O216" s="0"/>
-      <c r="P216" s="0"/>
-      <c r="Q216" s="0"/>
-      <c r="R216" s="0"/>
-      <c r="S216" s="0"/>
-      <c r="T216" s="0"/>
-      <c r="U216" s="4"/>
-      <c r="V216" s="0"/>
-      <c r="W216" s="0"/>
-      <c r="X216" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL HOLE 12"X4",8"X4" &amp; 3"X2"</t>
-        </is>
-      </c>
-      <c r="Y216" s="0"/>
-      <c r="Z216" s="0"/>
-      <c r="AA216" s="0"/>
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL HOLE 12\"X4\",8\"X4\" &amp; 3\"X2\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" s="0"/>
-      <c r="B217" s="0"/>
-      <c r="C217" s="0"/>
-      <c r="D217" s="0"/>
-      <c r="E217" s="0"/>
-      <c r="F217" s="0"/>
-      <c r="G217" s="0"/>
-      <c r="H217" s="0"/>
-      <c r="I217" s="0"/>
-      <c r="J217" s="0"/>
-      <c r="K217" s="0"/>
-      <c r="L217" s="0"/>
-      <c r="M217" s="4"/>
-      <c r="N217" s="0"/>
-      <c r="O217" s="0"/>
-      <c r="P217" s="0"/>
-      <c r="Q217" s="0"/>
-      <c r="R217" s="0"/>
-      <c r="S217" s="0"/>
-      <c r="T217" s="0"/>
-      <c r="U217" s="4"/>
-      <c r="V217" s="0"/>
-      <c r="W217" s="0"/>
-      <c r="X217" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS FITTINGS 08 PCS &amp; WOODEN 02 PCS,</t>
-        </is>
-      </c>
-      <c r="Y217" s="0"/>
-      <c r="Z217" s="0"/>
-      <c r="AA217" s="0"/>
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS FITTINGS 08 PCS &amp; WOODEN 02 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="n">
@@ -20035,70 +18733,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="0"/>
-      <c r="B219" s="0"/>
-      <c r="C219" s="0"/>
-      <c r="D219" s="0"/>
-      <c r="E219" s="0"/>
-      <c r="F219" s="0"/>
-      <c r="G219" s="0"/>
-      <c r="H219" s="0"/>
-      <c r="I219" s="0"/>
-      <c r="J219" s="0"/>
-      <c r="K219" s="0"/>
-      <c r="L219" s="0"/>
-      <c r="M219" s="4"/>
-      <c r="N219" s="0"/>
-      <c r="O219" s="0"/>
-      <c r="P219" s="0"/>
-      <c r="Q219" s="0"/>
-      <c r="R219" s="0"/>
-      <c r="S219" s="0"/>
-      <c r="T219" s="0"/>
-      <c r="U219" s="4"/>
-      <c r="V219" s="0"/>
-      <c r="W219" s="0"/>
-      <c r="X219" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD LOOSE 25"X20"</t>
-        </is>
-      </c>
-      <c r="Y219" s="0"/>
-      <c r="Z219" s="0"/>
-      <c r="AA219" s="0"/>
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD LOOSE 25\"X20\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" s="0"/>
-      <c r="B220" s="0"/>
-      <c r="C220" s="0"/>
-      <c r="D220" s="0"/>
-      <c r="E220" s="0"/>
-      <c r="F220" s="0"/>
-      <c r="G220" s="0"/>
-      <c r="H220" s="0"/>
-      <c r="I220" s="0"/>
-      <c r="J220" s="0"/>
-      <c r="K220" s="0"/>
-      <c r="L220" s="0"/>
-      <c r="M220" s="4"/>
-      <c r="N220" s="0"/>
-      <c r="O220" s="0"/>
-      <c r="P220" s="0"/>
-      <c r="Q220" s="0"/>
-      <c r="R220" s="0"/>
-      <c r="S220" s="0"/>
-      <c r="T220" s="0"/>
-      <c r="U220" s="4"/>
-      <c r="V220" s="0"/>
-      <c r="W220" s="0"/>
-      <c r="X220" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS REMOVED HOLE 3 PLASE (LIGHT PASS)</t>
-        </is>
-      </c>
-      <c r="Y220" s="0"/>
-      <c r="Z220" s="0"/>
-      <c r="AA220" s="0"/>
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS REMOVED HOLE 3 PLASE (LIGHT PASS)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="n">
@@ -20437,70 +19093,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="0"/>
-      <c r="B224" s="0"/>
-      <c r="C224" s="0"/>
-      <c r="D224" s="0"/>
-      <c r="E224" s="0"/>
-      <c r="F224" s="0"/>
-      <c r="G224" s="0"/>
-      <c r="H224" s="0"/>
-      <c r="I224" s="0"/>
-      <c r="J224" s="0"/>
-      <c r="K224" s="0"/>
-      <c r="L224" s="0"/>
-      <c r="M224" s="4"/>
-      <c r="N224" s="0"/>
-      <c r="O224" s="0"/>
-      <c r="P224" s="0"/>
-      <c r="Q224" s="0"/>
-      <c r="R224" s="0"/>
-      <c r="S224" s="0"/>
-      <c r="T224" s="0"/>
-      <c r="U224" s="4"/>
-      <c r="V224" s="0"/>
-      <c r="W224" s="0"/>
-      <c r="X224" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD PLY WOOD MISSING 60"X36"</t>
-        </is>
-      </c>
-      <c r="Y224" s="0"/>
-      <c r="Z224" s="0"/>
-      <c r="AA224" s="0"/>
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD PLY WOOD MISSING 60\"X36\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" s="0"/>
-      <c r="B225" s="0"/>
-      <c r="C225" s="0"/>
-      <c r="D225" s="0"/>
-      <c r="E225" s="0"/>
-      <c r="F225" s="0"/>
-      <c r="G225" s="0"/>
-      <c r="H225" s="0"/>
-      <c r="I225" s="0"/>
-      <c r="J225" s="0"/>
-      <c r="K225" s="0"/>
-      <c r="L225" s="0"/>
-      <c r="M225" s="4"/>
-      <c r="N225" s="0"/>
-      <c r="O225" s="0"/>
-      <c r="P225" s="0"/>
-      <c r="Q225" s="0"/>
-      <c r="R225" s="0"/>
-      <c r="S225" s="0"/>
-      <c r="T225" s="0"/>
-      <c r="U225" s="4"/>
-      <c r="V225" s="0"/>
-      <c r="W225" s="0"/>
-      <c r="X225" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y225" s="0"/>
-      <c r="Z225" s="0"/>
-      <c r="AA225" s="0"/>
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="n">
@@ -21065,37 +19679,16 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="0"/>
-      <c r="B231" s="0"/>
-      <c r="C231" s="0"/>
-      <c r="D231" s="0"/>
-      <c r="E231" s="0"/>
-      <c r="F231" s="0"/>
-      <c r="G231" s="0"/>
-      <c r="H231" s="0"/>
-      <c r="I231" s="0"/>
-      <c r="J231" s="0"/>
-      <c r="K231" s="0"/>
-      <c r="L231" s="0"/>
-      <c r="M231" s="4"/>
-      <c r="N231" s="0"/>
-      <c r="O231" s="0"/>
-      <c r="P231" s="0"/>
-      <c r="Q231" s="0"/>
-      <c r="R231" s="0"/>
-      <c r="S231" s="0"/>
-      <c r="T231" s="0"/>
-      <c r="U231" s="4"/>
-      <c r="V231" s="0"/>
-      <c r="W231" s="0"/>
-      <c r="X231" s="0" t="inlineStr">
-        <is>
-          <t>dirty</t>
-        </is>
-      </c>
-      <c r="Y231" s="0"/>
-      <c r="Z231" s="0"/>
-      <c r="AA231" s="0"/>
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "dirty", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="n">
@@ -21528,70 +20121,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="0"/>
-      <c r="B237" s="0"/>
-      <c r="C237" s="0"/>
-      <c r="D237" s="0"/>
-      <c r="E237" s="0"/>
-      <c r="F237" s="0"/>
-      <c r="G237" s="0"/>
-      <c r="H237" s="0"/>
-      <c r="I237" s="0"/>
-      <c r="J237" s="0"/>
-      <c r="K237" s="0"/>
-      <c r="L237" s="0"/>
-      <c r="M237" s="4"/>
-      <c r="N237" s="0"/>
-      <c r="O237" s="0"/>
-      <c r="P237" s="0"/>
-      <c r="Q237" s="0"/>
-      <c r="R237" s="0"/>
-      <c r="S237" s="0"/>
-      <c r="T237" s="0"/>
-      <c r="U237" s="4"/>
-      <c r="V237" s="0"/>
-      <c r="W237" s="0"/>
-      <c r="X237" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y237" s="0"/>
-      <c r="Z237" s="0"/>
-      <c r="AA237" s="0"/>
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY COTTON DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" s="0"/>
-      <c r="B238" s="0"/>
-      <c r="C238" s="0"/>
-      <c r="D238" s="0"/>
-      <c r="E238" s="0"/>
-      <c r="F238" s="0"/>
-      <c r="G238" s="0"/>
-      <c r="H238" s="0"/>
-      <c r="I238" s="0"/>
-      <c r="J238" s="0"/>
-      <c r="K238" s="0"/>
-      <c r="L238" s="0"/>
-      <c r="M238" s="4"/>
-      <c r="N238" s="0"/>
-      <c r="O238" s="0"/>
-      <c r="P238" s="0"/>
-      <c r="Q238" s="0"/>
-      <c r="R238" s="0"/>
-      <c r="S238" s="0"/>
-      <c r="T238" s="0"/>
-      <c r="U238" s="4"/>
-      <c r="V238" s="0"/>
-      <c r="W238" s="0"/>
-      <c r="X238" s="0" t="inlineStr">
-        <is>
-          <t>F/B STEEL PLATE FITTING 14'X08' &amp; BROKEN &amp; DOWN .</t>
-        </is>
-      </c>
-      <c r="Y238" s="0"/>
-      <c r="Z238" s="0"/>
-      <c r="AA238" s="0"/>
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B STEEL PLATE FITTING 14'X08' &amp; BROKEN &amp; DOWN .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_CMC_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_50_.xlsx
+++ b/reports/_CMC_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_50_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B238"/>
+  <dimension ref="A1:AB238"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="268.18988764044946" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1332,7 +1332,7 @@
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="63.58988764044945"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="93.28988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1626,9 +1626,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1750,9 +1796,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PLY WOOD MISSING 30\" X 20\"", "", "", ""]</t>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD PLY WOOD MISSING 30" X 20"</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1874,9 +1966,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY  TYER MARK", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY  TYER MARK</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1998,9 +2136,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2322,9 +2506,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BLACK STAIN", "", "", ""]</t>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2646,9 +2876,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD SCREW MISSING 02 PCS", "", "", ""]</t>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X21" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y21" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD SCREW MISSING 02 PCS</t>
+        </is>
+      </c>
+      <c r="Z21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB21" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2658,9 +2934,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL CORRODED EYELED (WATER MARK)", "", "", ""]</t>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y22" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL CORRODED EYELED (WATER MARK)</t>
+        </is>
+      </c>
+      <c r="Z22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2670,9 +2992,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY &amp; RUSTED", "", "", ""]</t>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X23" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y23" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY &amp; RUSTED</t>
+        </is>
+      </c>
+      <c r="Z23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB23" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2994,9 +3362,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT DOOR TOP GASKET CUT 5\"", "", "", ""]</t>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X27" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y27" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR TOP GASKET CUT 5"</t>
+        </is>
+      </c>
+      <c r="Z27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB27" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3118,9 +3532,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X29" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y29" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB29" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4658,9 +5118,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B46" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="0"/>
+      <c r="O46" s="0"/>
+      <c r="P46" s="0"/>
+      <c r="Q46" s="0"/>
+      <c r="R46" s="0"/>
+      <c r="S46" s="0"/>
+      <c r="T46" s="0"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="0"/>
+      <c r="W46" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X46" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y46" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z46" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA46" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB46" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4782,9 +5288,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B48" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="0"/>
+      <c r="O48" s="0"/>
+      <c r="P48" s="0"/>
+      <c r="Q48" s="0"/>
+      <c r="R48" s="0"/>
+      <c r="S48" s="0"/>
+      <c r="T48" s="0"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="0"/>
+      <c r="W48" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X48" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y48" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z48" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA48" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB48" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5242,9 +5794,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B53" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
+      <c r="S53" s="0"/>
+      <c r="T53" s="0"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="0"/>
+      <c r="W53" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X53" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y53" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z53" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA53" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB53" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5478,9 +6076,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B56" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL SPOT", "", "", ""]</t>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="0"/>
+      <c r="O56" s="0"/>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
+      <c r="S56" s="0"/>
+      <c r="T56" s="0"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X56" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y56" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
+        </is>
+      </c>
+      <c r="Z56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB56" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5714,9 +6358,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B59" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="0"/>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
+      <c r="S59" s="0"/>
+      <c r="T59" s="0"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X59" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y59" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z59" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA59" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB59" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6822,9 +7512,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B70" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
+      <c r="K70" s="0"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="0"/>
+      <c r="O70" s="0"/>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
+      <c r="R70" s="0"/>
+      <c r="S70" s="0"/>
+      <c r="T70" s="0"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="0"/>
+      <c r="W70" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X70" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y70" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z70" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA70" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB70" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7058,9 +7794,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B73" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR J BAR BENT 12'", "", "", ""]</t>
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
+      <c r="I73" s="0"/>
+      <c r="J73" s="0"/>
+      <c r="K73" s="0"/>
+      <c r="L73" s="0"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="0"/>
+      <c r="O73" s="0"/>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
+      <c r="R73" s="0"/>
+      <c r="S73" s="0"/>
+      <c r="T73" s="0"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="0"/>
+      <c r="W73" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X73" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y73" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR J BAR BENT 12'</t>
+        </is>
+      </c>
+      <c r="Z73" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA73" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB73" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7294,9 +8076,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+      <c r="G76" s="0"/>
+      <c r="H76" s="0"/>
+      <c r="I76" s="0"/>
+      <c r="J76" s="0"/>
+      <c r="K76" s="0"/>
+      <c r="L76" s="0"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="0"/>
+      <c r="O76" s="0"/>
+      <c r="P76" s="0"/>
+      <c r="Q76" s="0"/>
+      <c r="R76" s="0"/>
+      <c r="S76" s="0"/>
+      <c r="T76" s="0"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="0"/>
+      <c r="W76" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X76" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y76" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z76" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA76" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB76" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7306,9 +8134,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B77" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET STRIP BENT 6'", "", "", ""]</t>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+      <c r="L77" s="0"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="0"/>
+      <c r="O77" s="0"/>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
+      <c r="S77" s="0"/>
+      <c r="T77" s="0"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="0"/>
+      <c r="W77" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X77" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y77" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR BOTTOM GASKET STRIP BENT 6'</t>
+        </is>
+      </c>
+      <c r="Z77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB77" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7654,9 +8528,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B81" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PICK UP 80\" X80\"", "", "", ""]</t>
+      <c r="B81" s="0"/>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+      <c r="F81" s="0"/>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0"/>
+      <c r="K81" s="0"/>
+      <c r="L81" s="0"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="0"/>
+      <c r="O81" s="0"/>
+      <c r="P81" s="0"/>
+      <c r="Q81" s="0"/>
+      <c r="R81" s="0"/>
+      <c r="S81" s="0"/>
+      <c r="T81" s="0"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="0"/>
+      <c r="W81" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X81" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y81" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD PICK UP 80" X80"</t>
+        </is>
+      </c>
+      <c r="Z81" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA81" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB81" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7778,9 +8698,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B83" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DOWN 24\"X24\"", "", "", ""]</t>
+      <c r="B83" s="0"/>
+      <c r="C83" s="0"/>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
+      <c r="K83" s="0"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+      <c r="R83" s="0"/>
+      <c r="S83" s="0"/>
+      <c r="T83" s="0"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="0"/>
+      <c r="W83" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X83" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y83" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DOWN 24"X24"</t>
+        </is>
+      </c>
+      <c r="Z83" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA83" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB83" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7902,9 +8868,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B85" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
+      <c r="H85" s="0"/>
+      <c r="I85" s="0"/>
+      <c r="J85" s="0"/>
+      <c r="K85" s="0"/>
+      <c r="L85" s="0"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="0"/>
+      <c r="O85" s="0"/>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+      <c r="R85" s="0"/>
+      <c r="S85" s="0"/>
+      <c r="T85" s="0"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="0"/>
+      <c r="W85" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X85" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y85" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z85" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA85" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB85" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8474,9 +9486,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B91" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL SPOT", "", "", ""]</t>
+      <c r="B91" s="0"/>
+      <c r="C91" s="0"/>
+      <c r="D91" s="0"/>
+      <c r="E91" s="0"/>
+      <c r="F91" s="0"/>
+      <c r="G91" s="0"/>
+      <c r="H91" s="0"/>
+      <c r="I91" s="0"/>
+      <c r="J91" s="0"/>
+      <c r="K91" s="0"/>
+      <c r="L91" s="0"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="0"/>
+      <c r="O91" s="0"/>
+      <c r="P91" s="0"/>
+      <c r="Q91" s="0"/>
+      <c r="R91" s="0"/>
+      <c r="S91" s="0"/>
+      <c r="T91" s="0"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="0"/>
+      <c r="W91" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X91" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y91" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
+        </is>
+      </c>
+      <c r="Z91" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA91" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB91" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8822,9 +9880,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B95" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "DOOR BOTTOM RAIL CRACKET 4\" &amp; 3\" AT 2 PLASE,", "", "", ""]</t>
+      <c r="B95" s="0"/>
+      <c r="C95" s="0"/>
+      <c r="D95" s="0"/>
+      <c r="E95" s="0"/>
+      <c r="F95" s="0"/>
+      <c r="G95" s="0"/>
+      <c r="H95" s="0"/>
+      <c r="I95" s="0"/>
+      <c r="J95" s="0"/>
+      <c r="K95" s="0"/>
+      <c r="L95" s="0"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="0"/>
+      <c r="O95" s="0"/>
+      <c r="P95" s="0"/>
+      <c r="Q95" s="0"/>
+      <c r="R95" s="0"/>
+      <c r="S95" s="0"/>
+      <c r="T95" s="0"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="0"/>
+      <c r="W95" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X95" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y95" s="0" t="inlineStr">
+        <is>
+          <t>DOOR BOTTOM RAIL CRACKET 4" &amp; 3" AT 2 PLASE,</t>
+        </is>
+      </c>
+      <c r="Z95" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA95" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB95" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8834,9 +9938,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B96" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+      <c r="B96" s="0"/>
+      <c r="C96" s="0"/>
+      <c r="D96" s="0"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="0"/>
+      <c r="H96" s="0"/>
+      <c r="I96" s="0"/>
+      <c r="J96" s="0"/>
+      <c r="K96" s="0"/>
+      <c r="L96" s="0"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="0"/>
+      <c r="O96" s="0"/>
+      <c r="P96" s="0"/>
+      <c r="Q96" s="0"/>
+      <c r="R96" s="0"/>
+      <c r="S96" s="0"/>
+      <c r="T96" s="0"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="0"/>
+      <c r="W96" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X96" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y96" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK</t>
+        </is>
+      </c>
+      <c r="Z96" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA96" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB96" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8846,9 +9996,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B97" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+      <c r="B97" s="0"/>
+      <c r="C97" s="0"/>
+      <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="0"/>
+      <c r="H97" s="0"/>
+      <c r="I97" s="0"/>
+      <c r="J97" s="0"/>
+      <c r="K97" s="0"/>
+      <c r="L97" s="0"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="0"/>
+      <c r="O97" s="0"/>
+      <c r="P97" s="0"/>
+      <c r="Q97" s="0"/>
+      <c r="R97" s="0"/>
+      <c r="S97" s="0"/>
+      <c r="T97" s="0"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="0"/>
+      <c r="W97" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X97" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y97" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z97" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA97" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB97" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9306,9 +10502,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B102" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B102" s="0"/>
+      <c r="C102" s="0"/>
+      <c r="D102" s="0"/>
+      <c r="E102" s="0"/>
+      <c r="F102" s="0"/>
+      <c r="G102" s="0"/>
+      <c r="H102" s="0"/>
+      <c r="I102" s="0"/>
+      <c r="J102" s="0"/>
+      <c r="K102" s="0"/>
+      <c r="L102" s="0"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="0"/>
+      <c r="O102" s="0"/>
+      <c r="P102" s="0"/>
+      <c r="Q102" s="0"/>
+      <c r="R102" s="0"/>
+      <c r="S102" s="0"/>
+      <c r="T102" s="0"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="0"/>
+      <c r="W102" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X102" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y102" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z102" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA102" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB102" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9430,9 +10672,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B104" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR HINGERS BENT 02 PCS ", "", "", ""]</t>
+      <c r="B104" s="0"/>
+      <c r="C104" s="0"/>
+      <c r="D104" s="0"/>
+      <c r="E104" s="0"/>
+      <c r="F104" s="0"/>
+      <c r="G104" s="0"/>
+      <c r="H104" s="0"/>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
+      <c r="K104" s="0"/>
+      <c r="L104" s="0"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="0"/>
+      <c r="O104" s="0"/>
+      <c r="P104" s="0"/>
+      <c r="Q104" s="0"/>
+      <c r="R104" s="0"/>
+      <c r="S104" s="0"/>
+      <c r="T104" s="0"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="0"/>
+      <c r="W104" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X104" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y104" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR HINGERS BENT 02 PCS </t>
+        </is>
+      </c>
+      <c r="Z104" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA104" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB104" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9666,9 +10954,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B107" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B107" s="0"/>
+      <c r="C107" s="0"/>
+      <c r="D107" s="0"/>
+      <c r="E107" s="0"/>
+      <c r="F107" s="0"/>
+      <c r="G107" s="0"/>
+      <c r="H107" s="0"/>
+      <c r="I107" s="0"/>
+      <c r="J107" s="0"/>
+      <c r="K107" s="0"/>
+      <c r="L107" s="0"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="0"/>
+      <c r="O107" s="0"/>
+      <c r="P107" s="0"/>
+      <c r="Q107" s="0"/>
+      <c r="R107" s="0"/>
+      <c r="S107" s="0"/>
+      <c r="T107" s="0"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="0"/>
+      <c r="W107" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X107" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y107" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z107" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA107" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB107" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9902,9 +11236,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B110" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PICK-UP 12\"X 36\" AT 2 PLC &amp; SCRWO PICKUP 04 PCS &amp; MISSING 04 PCS", "", "", ""]</t>
+      <c r="B110" s="0"/>
+      <c r="C110" s="0"/>
+      <c r="D110" s="0"/>
+      <c r="E110" s="0"/>
+      <c r="F110" s="0"/>
+      <c r="G110" s="0"/>
+      <c r="H110" s="0"/>
+      <c r="I110" s="0"/>
+      <c r="J110" s="0"/>
+      <c r="K110" s="0"/>
+      <c r="L110" s="0"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="0"/>
+      <c r="O110" s="0"/>
+      <c r="P110" s="0"/>
+      <c r="Q110" s="0"/>
+      <c r="R110" s="0"/>
+      <c r="S110" s="0"/>
+      <c r="T110" s="0"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="0"/>
+      <c r="W110" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X110" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y110" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD PICK-UP 12"X 36" AT 2 PLC &amp; SCRWO PICKUP 04 PCS &amp; MISSING 04 PCS</t>
+        </is>
+      </c>
+      <c r="Z110" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA110" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB110" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10026,9 +11406,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B112" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 10 PES", "", "", ""]</t>
+      <c r="B112" s="0"/>
+      <c r="C112" s="0"/>
+      <c r="D112" s="0"/>
+      <c r="E112" s="0"/>
+      <c r="F112" s="0"/>
+      <c r="G112" s="0"/>
+      <c r="H112" s="0"/>
+      <c r="I112" s="0"/>
+      <c r="J112" s="0"/>
+      <c r="K112" s="0"/>
+      <c r="L112" s="0"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="0"/>
+      <c r="O112" s="0"/>
+      <c r="P112" s="0"/>
+      <c r="Q112" s="0"/>
+      <c r="R112" s="0"/>
+      <c r="S112" s="0"/>
+      <c r="T112" s="0"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="0"/>
+      <c r="W112" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X112" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y112" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS FITTING 10 PES</t>
+        </is>
+      </c>
+      <c r="Z112" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA112" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB112" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10486,9 +11912,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B117" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR HINGES BENT 04 PCS ( DOOR UNLOCK)", "", "", ""]</t>
+      <c r="B117" s="0"/>
+      <c r="C117" s="0"/>
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+      <c r="F117" s="0"/>
+      <c r="G117" s="0"/>
+      <c r="H117" s="0"/>
+      <c r="I117" s="0"/>
+      <c r="J117" s="0"/>
+      <c r="K117" s="0"/>
+      <c r="L117" s="0"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="0"/>
+      <c r="O117" s="0"/>
+      <c r="P117" s="0"/>
+      <c r="Q117" s="0"/>
+      <c r="R117" s="0"/>
+      <c r="S117" s="0"/>
+      <c r="T117" s="0"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="0"/>
+      <c r="W117" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X117" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y117" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR HINGES BENT 04 PCS ( DOOR UNLOCK)</t>
+        </is>
+      </c>
+      <c r="Z117" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA117" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB117" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10722,9 +12194,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B120" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR HINGES BENT 04 PCS ( DOOR UNLOCK)", "", "", ""]</t>
+      <c r="B120" s="0"/>
+      <c r="C120" s="0"/>
+      <c r="D120" s="0"/>
+      <c r="E120" s="0"/>
+      <c r="F120" s="0"/>
+      <c r="G120" s="0"/>
+      <c r="H120" s="0"/>
+      <c r="I120" s="0"/>
+      <c r="J120" s="0"/>
+      <c r="K120" s="0"/>
+      <c r="L120" s="0"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="0"/>
+      <c r="O120" s="0"/>
+      <c r="P120" s="0"/>
+      <c r="Q120" s="0"/>
+      <c r="R120" s="0"/>
+      <c r="S120" s="0"/>
+      <c r="T120" s="0"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="0"/>
+      <c r="W120" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X120" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y120" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR HINGES BENT 04 PCS ( DOOR UNLOCK)</t>
+        </is>
+      </c>
+      <c r="Z120" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA120" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB120" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10958,9 +12476,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B123" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL  CRACKED 6\" AT 02 PLS", "", "", ""]</t>
+      <c r="B123" s="0"/>
+      <c r="C123" s="0"/>
+      <c r="D123" s="0"/>
+      <c r="E123" s="0"/>
+      <c r="F123" s="0"/>
+      <c r="G123" s="0"/>
+      <c r="H123" s="0"/>
+      <c r="I123" s="0"/>
+      <c r="J123" s="0"/>
+      <c r="K123" s="0"/>
+      <c r="L123" s="0"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="0"/>
+      <c r="O123" s="0"/>
+      <c r="P123" s="0"/>
+      <c r="Q123" s="0"/>
+      <c r="R123" s="0"/>
+      <c r="S123" s="0"/>
+      <c r="T123" s="0"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="0"/>
+      <c r="W123" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X123" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y123" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL  CRACKED 6" AT 02 PLS</t>
+        </is>
+      </c>
+      <c r="Z123" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA123" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB123" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11754,9 +13318,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B131" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PICK UP 12\"X12\"", "", "", ""]</t>
+      <c r="B131" s="0"/>
+      <c r="C131" s="0"/>
+      <c r="D131" s="0"/>
+      <c r="E131" s="0"/>
+      <c r="F131" s="0"/>
+      <c r="G131" s="0"/>
+      <c r="H131" s="0"/>
+      <c r="I131" s="0"/>
+      <c r="J131" s="0"/>
+      <c r="K131" s="0"/>
+      <c r="L131" s="0"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="0"/>
+      <c r="O131" s="0"/>
+      <c r="P131" s="0"/>
+      <c r="Q131" s="0"/>
+      <c r="R131" s="0"/>
+      <c r="S131" s="0"/>
+      <c r="T131" s="0"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="0"/>
+      <c r="W131" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X131" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y131" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD PICK UP 12"X12"</t>
+        </is>
+      </c>
+      <c r="Z131" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA131" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB131" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11766,9 +13376,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B132" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY &amp; SCRATHA &amp; RUSTED", "", "", ""]</t>
+      <c r="B132" s="0"/>
+      <c r="C132" s="0"/>
+      <c r="D132" s="0"/>
+      <c r="E132" s="0"/>
+      <c r="F132" s="0"/>
+      <c r="G132" s="0"/>
+      <c r="H132" s="0"/>
+      <c r="I132" s="0"/>
+      <c r="J132" s="0"/>
+      <c r="K132" s="0"/>
+      <c r="L132" s="0"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="0"/>
+      <c r="O132" s="0"/>
+      <c r="P132" s="0"/>
+      <c r="Q132" s="0"/>
+      <c r="R132" s="0"/>
+      <c r="S132" s="0"/>
+      <c r="T132" s="0"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="0"/>
+      <c r="W132" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X132" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y132" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY &amp; SCRATHA &amp; RUSTED</t>
+        </is>
+      </c>
+      <c r="Z132" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA132" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB132" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12114,9 +13770,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B136" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B136" s="0"/>
+      <c r="C136" s="0"/>
+      <c r="D136" s="0"/>
+      <c r="E136" s="0"/>
+      <c r="F136" s="0"/>
+      <c r="G136" s="0"/>
+      <c r="H136" s="0"/>
+      <c r="I136" s="0"/>
+      <c r="J136" s="0"/>
+      <c r="K136" s="0"/>
+      <c r="L136" s="0"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="0"/>
+      <c r="O136" s="0"/>
+      <c r="P136" s="0"/>
+      <c r="Q136" s="0"/>
+      <c r="R136" s="0"/>
+      <c r="S136" s="0"/>
+      <c r="T136" s="0"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="0"/>
+      <c r="W136" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X136" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y136" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z136" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA136" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB136" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12686,9 +14388,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B142" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET CUT 2\"", "", "", ""]</t>
+      <c r="B142" s="0"/>
+      <c r="C142" s="0"/>
+      <c r="D142" s="0"/>
+      <c r="E142" s="0"/>
+      <c r="F142" s="0"/>
+      <c r="G142" s="0"/>
+      <c r="H142" s="0"/>
+      <c r="I142" s="0"/>
+      <c r="J142" s="0"/>
+      <c r="K142" s="0"/>
+      <c r="L142" s="0"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="0"/>
+      <c r="O142" s="0"/>
+      <c r="P142" s="0"/>
+      <c r="Q142" s="0"/>
+      <c r="R142" s="0"/>
+      <c r="S142" s="0"/>
+      <c r="T142" s="0"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="0"/>
+      <c r="W142" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X142" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y142" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR BOTTOM GASKET CUT 2"</t>
+        </is>
+      </c>
+      <c r="Z142" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA142" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB142" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12698,9 +14446,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B143" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR HINGS ARIA CORRODED", "", "", ""]</t>
+      <c r="B143" s="0"/>
+      <c r="C143" s="0"/>
+      <c r="D143" s="0"/>
+      <c r="E143" s="0"/>
+      <c r="F143" s="0"/>
+      <c r="G143" s="0"/>
+      <c r="H143" s="0"/>
+      <c r="I143" s="0"/>
+      <c r="J143" s="0"/>
+      <c r="K143" s="0"/>
+      <c r="L143" s="0"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="0"/>
+      <c r="O143" s="0"/>
+      <c r="P143" s="0"/>
+      <c r="Q143" s="0"/>
+      <c r="R143" s="0"/>
+      <c r="S143" s="0"/>
+      <c r="T143" s="0"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="0"/>
+      <c r="W143" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X143" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y143" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR HINGS ARIA CORRODED</t>
+        </is>
+      </c>
+      <c r="Z143" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA143" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB143" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12710,9 +14504,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B144" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED (BADLY)", "", "", ""]</t>
+      <c r="B144" s="0"/>
+      <c r="C144" s="0"/>
+      <c r="D144" s="0"/>
+      <c r="E144" s="0"/>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
+      <c r="H144" s="0"/>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
+      <c r="K144" s="0"/>
+      <c r="L144" s="0"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="0"/>
+      <c r="O144" s="0"/>
+      <c r="P144" s="0"/>
+      <c r="Q144" s="0"/>
+      <c r="R144" s="0"/>
+      <c r="S144" s="0"/>
+      <c r="T144" s="0"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="0"/>
+      <c r="W144" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X144" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y144" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED (BADLY)</t>
+        </is>
+      </c>
+      <c r="Z144" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA144" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB144" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12834,9 +14674,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B146" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK DIRTY ", "", "", ""]</t>
+      <c r="B146" s="0"/>
+      <c r="C146" s="0"/>
+      <c r="D146" s="0"/>
+      <c r="E146" s="0"/>
+      <c r="F146" s="0"/>
+      <c r="G146" s="0"/>
+      <c r="H146" s="0"/>
+      <c r="I146" s="0"/>
+      <c r="J146" s="0"/>
+      <c r="K146" s="0"/>
+      <c r="L146" s="0"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="0"/>
+      <c r="O146" s="0"/>
+      <c r="P146" s="0"/>
+      <c r="Q146" s="0"/>
+      <c r="R146" s="0"/>
+      <c r="S146" s="0"/>
+      <c r="T146" s="0"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="0"/>
+      <c r="W146" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X146" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y146" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK DIRTY </t>
+        </is>
+      </c>
+      <c r="Z146" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA146" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB146" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13294,9 +15180,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B151" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B151" s="0"/>
+      <c r="C151" s="0"/>
+      <c r="D151" s="0"/>
+      <c r="E151" s="0"/>
+      <c r="F151" s="0"/>
+      <c r="G151" s="0"/>
+      <c r="H151" s="0"/>
+      <c r="I151" s="0"/>
+      <c r="J151" s="0"/>
+      <c r="K151" s="0"/>
+      <c r="L151" s="0"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="0"/>
+      <c r="O151" s="0"/>
+      <c r="P151" s="0"/>
+      <c r="Q151" s="0"/>
+      <c r="R151" s="0"/>
+      <c r="S151" s="0"/>
+      <c r="T151" s="0"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="0"/>
+      <c r="W151" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X151" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y151" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z151" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA151" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB151" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13530,9 +15462,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B154" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 06 PES", "", "", ""]</t>
+      <c r="B154" s="0"/>
+      <c r="C154" s="0"/>
+      <c r="D154" s="0"/>
+      <c r="E154" s="0"/>
+      <c r="F154" s="0"/>
+      <c r="G154" s="0"/>
+      <c r="H154" s="0"/>
+      <c r="I154" s="0"/>
+      <c r="J154" s="0"/>
+      <c r="K154" s="0"/>
+      <c r="L154" s="0"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="0"/>
+      <c r="O154" s="0"/>
+      <c r="P154" s="0"/>
+      <c r="Q154" s="0"/>
+      <c r="R154" s="0"/>
+      <c r="S154" s="0"/>
+      <c r="T154" s="0"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="0"/>
+      <c r="W154" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X154" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y154" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS FITTING 06 PES</t>
+        </is>
+      </c>
+      <c r="Z154" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA154" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB154" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13542,9 +15520,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B155" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BLACK STAIN &amp;  SCRATCH", "", "", ""]</t>
+      <c r="B155" s="0"/>
+      <c r="C155" s="0"/>
+      <c r="D155" s="0"/>
+      <c r="E155" s="0"/>
+      <c r="F155" s="0"/>
+      <c r="G155" s="0"/>
+      <c r="H155" s="0"/>
+      <c r="I155" s="0"/>
+      <c r="J155" s="0"/>
+      <c r="K155" s="0"/>
+      <c r="L155" s="0"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="0"/>
+      <c r="O155" s="0"/>
+      <c r="P155" s="0"/>
+      <c r="Q155" s="0"/>
+      <c r="R155" s="0"/>
+      <c r="S155" s="0"/>
+      <c r="T155" s="0"/>
+      <c r="U155" s="4"/>
+      <c r="V155" s="0"/>
+      <c r="W155" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X155" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y155" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  SCRATCH</t>
+        </is>
+      </c>
+      <c r="Z155" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA155" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB155" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14226,9 +16250,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B162" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B162" s="0"/>
+      <c r="C162" s="0"/>
+      <c r="D162" s="0"/>
+      <c r="E162" s="0"/>
+      <c r="F162" s="0"/>
+      <c r="G162" s="0"/>
+      <c r="H162" s="0"/>
+      <c r="I162" s="0"/>
+      <c r="J162" s="0"/>
+      <c r="K162" s="0"/>
+      <c r="L162" s="0"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="0"/>
+      <c r="O162" s="0"/>
+      <c r="P162" s="0"/>
+      <c r="Q162" s="0"/>
+      <c r="R162" s="0"/>
+      <c r="S162" s="0"/>
+      <c r="T162" s="0"/>
+      <c r="U162" s="4"/>
+      <c r="V162" s="0"/>
+      <c r="W162" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X162" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y162" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z162" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA162" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB162" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14438,9 +16508,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B165" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM STRIP BENT 12' &amp; GASKET MISSING 4'", "", "", ""]</t>
+      <c r="B165" s="0"/>
+      <c r="C165" s="0"/>
+      <c r="D165" s="0"/>
+      <c r="E165" s="0"/>
+      <c r="F165" s="0"/>
+      <c r="G165" s="0"/>
+      <c r="H165" s="0"/>
+      <c r="I165" s="0"/>
+      <c r="J165" s="0"/>
+      <c r="K165" s="0"/>
+      <c r="L165" s="0"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="0"/>
+      <c r="O165" s="0"/>
+      <c r="P165" s="0"/>
+      <c r="Q165" s="0"/>
+      <c r="R165" s="0"/>
+      <c r="S165" s="0"/>
+      <c r="T165" s="0"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="0"/>
+      <c r="W165" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X165" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y165" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR BOTTOM STRIP BENT 12' &amp; GASKET MISSING 4'</t>
+        </is>
+      </c>
+      <c r="Z165" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA165" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB165" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14898,9 +17014,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B170" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS FITTINGS 6 PCS,", "", "", ""]</t>
+      <c r="B170" s="0"/>
+      <c r="C170" s="0"/>
+      <c r="D170" s="0"/>
+      <c r="E170" s="0"/>
+      <c r="F170" s="0"/>
+      <c r="G170" s="0"/>
+      <c r="H170" s="0"/>
+      <c r="I170" s="0"/>
+      <c r="J170" s="0"/>
+      <c r="K170" s="0"/>
+      <c r="L170" s="0"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="0"/>
+      <c r="O170" s="0"/>
+      <c r="P170" s="0"/>
+      <c r="Q170" s="0"/>
+      <c r="R170" s="0"/>
+      <c r="S170" s="0"/>
+      <c r="T170" s="0"/>
+      <c r="U170" s="4"/>
+      <c r="V170" s="0"/>
+      <c r="W170" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X170" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y170" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS FITTINGS 6 PCS,</t>
+        </is>
+      </c>
+      <c r="Z170" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA170" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB170" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15022,9 +17184,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B172" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL CUT 8\"", "", "", ""]</t>
+      <c r="B172" s="0"/>
+      <c r="C172" s="0"/>
+      <c r="D172" s="0"/>
+      <c r="E172" s="0"/>
+      <c r="F172" s="0"/>
+      <c r="G172" s="0"/>
+      <c r="H172" s="0"/>
+      <c r="I172" s="0"/>
+      <c r="J172" s="0"/>
+      <c r="K172" s="0"/>
+      <c r="L172" s="0"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="0"/>
+      <c r="O172" s="0"/>
+      <c r="P172" s="0"/>
+      <c r="Q172" s="0"/>
+      <c r="R172" s="0"/>
+      <c r="S172" s="0"/>
+      <c r="T172" s="0"/>
+      <c r="U172" s="4"/>
+      <c r="V172" s="0"/>
+      <c r="W172" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X172" s="0" t="inlineStr">
+        <is>
+          <t>Roof panel-(Roof panel)</t>
+        </is>
+      </c>
+      <c r="Y172" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL CUT 8"</t>
+        </is>
+      </c>
+      <c r="Z172" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA172" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB172" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15258,9 +17466,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B175" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR J-BAR BENT 8\"", "", "", ""]</t>
+      <c r="B175" s="0"/>
+      <c r="C175" s="0"/>
+      <c r="D175" s="0"/>
+      <c r="E175" s="0"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
+      <c r="H175" s="0"/>
+      <c r="I175" s="0"/>
+      <c r="J175" s="0"/>
+      <c r="K175" s="0"/>
+      <c r="L175" s="0"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="0"/>
+      <c r="O175" s="0"/>
+      <c r="P175" s="0"/>
+      <c r="Q175" s="0"/>
+      <c r="R175" s="0"/>
+      <c r="S175" s="0"/>
+      <c r="T175" s="0"/>
+      <c r="U175" s="4"/>
+      <c r="V175" s="0"/>
+      <c r="W175" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X175" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y175" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR J-BAR BENT 8"</t>
+        </is>
+      </c>
+      <c r="Z175" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA175" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB175" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15606,9 +17860,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B179" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B179" s="0"/>
+      <c r="C179" s="0"/>
+      <c r="D179" s="0"/>
+      <c r="E179" s="0"/>
+      <c r="F179" s="0"/>
+      <c r="G179" s="0"/>
+      <c r="H179" s="0"/>
+      <c r="I179" s="0"/>
+      <c r="J179" s="0"/>
+      <c r="K179" s="0"/>
+      <c r="L179" s="0"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="0"/>
+      <c r="O179" s="0"/>
+      <c r="P179" s="0"/>
+      <c r="Q179" s="0"/>
+      <c r="R179" s="0"/>
+      <c r="S179" s="0"/>
+      <c r="T179" s="0"/>
+      <c r="U179" s="4"/>
+      <c r="V179" s="0"/>
+      <c r="W179" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X179" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y179" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z179" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA179" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB179" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16514,9 +18814,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B188" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL PATCH IN AT VARIOUS PLS", "", "", ""]</t>
+      <c r="B188" s="0"/>
+      <c r="C188" s="0"/>
+      <c r="D188" s="0"/>
+      <c r="E188" s="0"/>
+      <c r="F188" s="0"/>
+      <c r="G188" s="0"/>
+      <c r="H188" s="0"/>
+      <c r="I188" s="0"/>
+      <c r="J188" s="0"/>
+      <c r="K188" s="0"/>
+      <c r="L188" s="0"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="0"/>
+      <c r="O188" s="0"/>
+      <c r="P188" s="0"/>
+      <c r="Q188" s="0"/>
+      <c r="R188" s="0"/>
+      <c r="S188" s="0"/>
+      <c r="T188" s="0"/>
+      <c r="U188" s="4"/>
+      <c r="V188" s="0"/>
+      <c r="W188" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X188" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y188" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL PATCH IN AT VARIOUS PLS</t>
+        </is>
+      </c>
+      <c r="Z188" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA188" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB188" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16526,9 +18872,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B189" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET AREA CORRODED HOLE 4'X2'", "", "", ""]</t>
+      <c r="B189" s="0"/>
+      <c r="C189" s="0"/>
+      <c r="D189" s="0"/>
+      <c r="E189" s="0"/>
+      <c r="F189" s="0"/>
+      <c r="G189" s="0"/>
+      <c r="H189" s="0"/>
+      <c r="I189" s="0"/>
+      <c r="J189" s="0"/>
+      <c r="K189" s="0"/>
+      <c r="L189" s="0"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="0"/>
+      <c r="O189" s="0"/>
+      <c r="P189" s="0"/>
+      <c r="Q189" s="0"/>
+      <c r="R189" s="0"/>
+      <c r="S189" s="0"/>
+      <c r="T189" s="0"/>
+      <c r="U189" s="4"/>
+      <c r="V189" s="0"/>
+      <c r="W189" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X189" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y189" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR BOTTOM GASKET AREA CORRODED HOLE 4'X2'</t>
+        </is>
+      </c>
+      <c r="Z189" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA189" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB189" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16650,9 +19042,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B191" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD WOODEN FITTING 02 PCS", "", "", ""]</t>
+      <c r="B191" s="0"/>
+      <c r="C191" s="0"/>
+      <c r="D191" s="0"/>
+      <c r="E191" s="0"/>
+      <c r="F191" s="0"/>
+      <c r="G191" s="0"/>
+      <c r="H191" s="0"/>
+      <c r="I191" s="0"/>
+      <c r="J191" s="0"/>
+      <c r="K191" s="0"/>
+      <c r="L191" s="0"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="0"/>
+      <c r="O191" s="0"/>
+      <c r="P191" s="0"/>
+      <c r="Q191" s="0"/>
+      <c r="R191" s="0"/>
+      <c r="S191" s="0"/>
+      <c r="T191" s="0"/>
+      <c r="U191" s="4"/>
+      <c r="V191" s="0"/>
+      <c r="W191" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X191" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y191" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD WOODEN FITTING 02 PCS</t>
+        </is>
+      </c>
+      <c r="Z191" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA191" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB191" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16950,9 +19388,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B195" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED", "", "", ""]</t>
+      <c r="B195" s="0"/>
+      <c r="C195" s="0"/>
+      <c r="D195" s="0"/>
+      <c r="E195" s="0"/>
+      <c r="F195" s="0"/>
+      <c r="G195" s="0"/>
+      <c r="H195" s="0"/>
+      <c r="I195" s="0"/>
+      <c r="J195" s="0"/>
+      <c r="K195" s="0"/>
+      <c r="L195" s="0"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="0"/>
+      <c r="O195" s="0"/>
+      <c r="P195" s="0"/>
+      <c r="Q195" s="0"/>
+      <c r="R195" s="0"/>
+      <c r="S195" s="0"/>
+      <c r="T195" s="0"/>
+      <c r="U195" s="4"/>
+      <c r="V195" s="0"/>
+      <c r="W195" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X195" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y195" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED</t>
+        </is>
+      </c>
+      <c r="Z195" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA195" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB195" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17074,9 +19558,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B197" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B197" s="0"/>
+      <c r="C197" s="0"/>
+      <c r="D197" s="0"/>
+      <c r="E197" s="0"/>
+      <c r="F197" s="0"/>
+      <c r="G197" s="0"/>
+      <c r="H197" s="0"/>
+      <c r="I197" s="0"/>
+      <c r="J197" s="0"/>
+      <c r="K197" s="0"/>
+      <c r="L197" s="0"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="0"/>
+      <c r="O197" s="0"/>
+      <c r="P197" s="0"/>
+      <c r="Q197" s="0"/>
+      <c r="R197" s="0"/>
+      <c r="S197" s="0"/>
+      <c r="T197" s="0"/>
+      <c r="U197" s="4"/>
+      <c r="V197" s="0"/>
+      <c r="W197" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X197" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y197" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z197" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA197" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB197" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17198,9 +19728,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B199" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK DIRTY &amp; SCRATCH", "", "", ""]</t>
+      <c r="B199" s="0"/>
+      <c r="C199" s="0"/>
+      <c r="D199" s="0"/>
+      <c r="E199" s="0"/>
+      <c r="F199" s="0"/>
+      <c r="G199" s="0"/>
+      <c r="H199" s="0"/>
+      <c r="I199" s="0"/>
+      <c r="J199" s="0"/>
+      <c r="K199" s="0"/>
+      <c r="L199" s="0"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="0"/>
+      <c r="O199" s="0"/>
+      <c r="P199" s="0"/>
+      <c r="Q199" s="0"/>
+      <c r="R199" s="0"/>
+      <c r="S199" s="0"/>
+      <c r="T199" s="0"/>
+      <c r="U199" s="4"/>
+      <c r="V199" s="0"/>
+      <c r="W199" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X199" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y199" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK DIRTY &amp; SCRATCH</t>
+        </is>
+      </c>
+      <c r="Z199" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA199" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB199" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17210,9 +19786,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B200" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED", "", "", ""]</t>
+      <c r="B200" s="0"/>
+      <c r="C200" s="0"/>
+      <c r="D200" s="0"/>
+      <c r="E200" s="0"/>
+      <c r="F200" s="0"/>
+      <c r="G200" s="0"/>
+      <c r="H200" s="0"/>
+      <c r="I200" s="0"/>
+      <c r="J200" s="0"/>
+      <c r="K200" s="0"/>
+      <c r="L200" s="0"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="0"/>
+      <c r="O200" s="0"/>
+      <c r="P200" s="0"/>
+      <c r="Q200" s="0"/>
+      <c r="R200" s="0"/>
+      <c r="S200" s="0"/>
+      <c r="T200" s="0"/>
+      <c r="U200" s="4"/>
+      <c r="V200" s="0"/>
+      <c r="W200" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X200" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y200" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR PANEL &amp; FRAME RUSTED &amp; CORRODED</t>
+        </is>
+      </c>
+      <c r="Z200" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA200" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB200" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17558,9 +20180,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B204" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED &amp; CORROSION", "", "", ""]</t>
+      <c r="B204" s="0"/>
+      <c r="C204" s="0"/>
+      <c r="D204" s="0"/>
+      <c r="E204" s="0"/>
+      <c r="F204" s="0"/>
+      <c r="G204" s="0"/>
+      <c r="H204" s="0"/>
+      <c r="I204" s="0"/>
+      <c r="J204" s="0"/>
+      <c r="K204" s="0"/>
+      <c r="L204" s="0"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="0"/>
+      <c r="O204" s="0"/>
+      <c r="P204" s="0"/>
+      <c r="Q204" s="0"/>
+      <c r="R204" s="0"/>
+      <c r="S204" s="0"/>
+      <c r="T204" s="0"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="0"/>
+      <c r="W204" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X204" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y204" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED &amp; CORROSION</t>
+        </is>
+      </c>
+      <c r="Z204" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA204" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB204" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17906,9 +20574,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B208" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD STEEL PLATE FITTINGS 20\"X6\" WITH BROKEN", "", "", ""]</t>
+      <c r="B208" s="0"/>
+      <c r="C208" s="0"/>
+      <c r="D208" s="0"/>
+      <c r="E208" s="0"/>
+      <c r="F208" s="0"/>
+      <c r="G208" s="0"/>
+      <c r="H208" s="0"/>
+      <c r="I208" s="0"/>
+      <c r="J208" s="0"/>
+      <c r="K208" s="0"/>
+      <c r="L208" s="0"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="0"/>
+      <c r="O208" s="0"/>
+      <c r="P208" s="0"/>
+      <c r="Q208" s="0"/>
+      <c r="R208" s="0"/>
+      <c r="S208" s="0"/>
+      <c r="T208" s="0"/>
+      <c r="U208" s="4"/>
+      <c r="V208" s="0"/>
+      <c r="W208" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X208" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y208" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD STEEL PLATE FITTINGS 20"X6" WITH BROKEN</t>
+        </is>
+      </c>
+      <c r="Z208" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA208" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB208" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -18030,9 +20744,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B210" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B210" s="0"/>
+      <c r="C210" s="0"/>
+      <c r="D210" s="0"/>
+      <c r="E210" s="0"/>
+      <c r="F210" s="0"/>
+      <c r="G210" s="0"/>
+      <c r="H210" s="0"/>
+      <c r="I210" s="0"/>
+      <c r="J210" s="0"/>
+      <c r="K210" s="0"/>
+      <c r="L210" s="0"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="0"/>
+      <c r="O210" s="0"/>
+      <c r="P210" s="0"/>
+      <c r="Q210" s="0"/>
+      <c r="R210" s="0"/>
+      <c r="S210" s="0"/>
+      <c r="T210" s="0"/>
+      <c r="U210" s="4"/>
+      <c r="V210" s="0"/>
+      <c r="W210" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X210" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y210" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z210" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA210" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB210" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -18602,9 +21362,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B216" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL HOLE 12\"X4\",8\"X4\" &amp; 3\"X2\"", "", "", ""]</t>
+      <c r="B216" s="0"/>
+      <c r="C216" s="0"/>
+      <c r="D216" s="0"/>
+      <c r="E216" s="0"/>
+      <c r="F216" s="0"/>
+      <c r="G216" s="0"/>
+      <c r="H216" s="0"/>
+      <c r="I216" s="0"/>
+      <c r="J216" s="0"/>
+      <c r="K216" s="0"/>
+      <c r="L216" s="0"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="0"/>
+      <c r="O216" s="0"/>
+      <c r="P216" s="0"/>
+      <c r="Q216" s="0"/>
+      <c r="R216" s="0"/>
+      <c r="S216" s="0"/>
+      <c r="T216" s="0"/>
+      <c r="U216" s="4"/>
+      <c r="V216" s="0"/>
+      <c r="W216" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X216" s="0" t="inlineStr">
+        <is>
+          <t>Roof panel-(Roof panel)</t>
+        </is>
+      </c>
+      <c r="Y216" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL HOLE 12"X4",8"X4" &amp; 3"X2"</t>
+        </is>
+      </c>
+      <c r="Z216" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA216" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB216" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -18614,9 +21420,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B217" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS FITTINGS 08 PCS &amp; WOODEN 02 PCS,", "", "", ""]</t>
+      <c r="B217" s="0"/>
+      <c r="C217" s="0"/>
+      <c r="D217" s="0"/>
+      <c r="E217" s="0"/>
+      <c r="F217" s="0"/>
+      <c r="G217" s="0"/>
+      <c r="H217" s="0"/>
+      <c r="I217" s="0"/>
+      <c r="J217" s="0"/>
+      <c r="K217" s="0"/>
+      <c r="L217" s="0"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="0"/>
+      <c r="O217" s="0"/>
+      <c r="P217" s="0"/>
+      <c r="Q217" s="0"/>
+      <c r="R217" s="0"/>
+      <c r="S217" s="0"/>
+      <c r="T217" s="0"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="0"/>
+      <c r="W217" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X217" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y217" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS FITTINGS 08 PCS &amp; WOODEN 02 PCS,</t>
+        </is>
+      </c>
+      <c r="Z217" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA217" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB217" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -18738,9 +21590,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B219" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD LOOSE 25\"X20\"", "", "", ""]</t>
+      <c r="B219" s="0"/>
+      <c r="C219" s="0"/>
+      <c r="D219" s="0"/>
+      <c r="E219" s="0"/>
+      <c r="F219" s="0"/>
+      <c r="G219" s="0"/>
+      <c r="H219" s="0"/>
+      <c r="I219" s="0"/>
+      <c r="J219" s="0"/>
+      <c r="K219" s="0"/>
+      <c r="L219" s="0"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="0"/>
+      <c r="O219" s="0"/>
+      <c r="P219" s="0"/>
+      <c r="Q219" s="0"/>
+      <c r="R219" s="0"/>
+      <c r="S219" s="0"/>
+      <c r="T219" s="0"/>
+      <c r="U219" s="4"/>
+      <c r="V219" s="0"/>
+      <c r="W219" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X219" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y219" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD LOOSE 25"X20"</t>
+        </is>
+      </c>
+      <c r="Z219" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA219" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB219" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -18750,9 +21648,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B220" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS REMOVED HOLE 3 PLASE (LIGHT PASS)", "", "", ""]</t>
+      <c r="B220" s="0"/>
+      <c r="C220" s="0"/>
+      <c r="D220" s="0"/>
+      <c r="E220" s="0"/>
+      <c r="F220" s="0"/>
+      <c r="G220" s="0"/>
+      <c r="H220" s="0"/>
+      <c r="I220" s="0"/>
+      <c r="J220" s="0"/>
+      <c r="K220" s="0"/>
+      <c r="L220" s="0"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="0"/>
+      <c r="O220" s="0"/>
+      <c r="P220" s="0"/>
+      <c r="Q220" s="0"/>
+      <c r="R220" s="0"/>
+      <c r="S220" s="0"/>
+      <c r="T220" s="0"/>
+      <c r="U220" s="4"/>
+      <c r="V220" s="0"/>
+      <c r="W220" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X220" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y220" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS REMOVED HOLE 3 PLASE (LIGHT PASS)</t>
+        </is>
+      </c>
+      <c r="Z220" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA220" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB220" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -19098,9 +22042,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B224" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD PLY WOOD MISSING 60\"X36\"", "", "", ""]</t>
+      <c r="B224" s="0"/>
+      <c r="C224" s="0"/>
+      <c r="D224" s="0"/>
+      <c r="E224" s="0"/>
+      <c r="F224" s="0"/>
+      <c r="G224" s="0"/>
+      <c r="H224" s="0"/>
+      <c r="I224" s="0"/>
+      <c r="J224" s="0"/>
+      <c r="K224" s="0"/>
+      <c r="L224" s="0"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="0"/>
+      <c r="O224" s="0"/>
+      <c r="P224" s="0"/>
+      <c r="Q224" s="0"/>
+      <c r="R224" s="0"/>
+      <c r="S224" s="0"/>
+      <c r="T224" s="0"/>
+      <c r="U224" s="4"/>
+      <c r="V224" s="0"/>
+      <c r="W224" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X224" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y224" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD PLY WOOD MISSING 60"X36"</t>
+        </is>
+      </c>
+      <c r="Z224" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA224" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB224" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -19110,9 +22100,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B225" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+      <c r="B225" s="0"/>
+      <c r="C225" s="0"/>
+      <c r="D225" s="0"/>
+      <c r="E225" s="0"/>
+      <c r="F225" s="0"/>
+      <c r="G225" s="0"/>
+      <c r="H225" s="0"/>
+      <c r="I225" s="0"/>
+      <c r="J225" s="0"/>
+      <c r="K225" s="0"/>
+      <c r="L225" s="0"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="0"/>
+      <c r="O225" s="0"/>
+      <c r="P225" s="0"/>
+      <c r="Q225" s="0"/>
+      <c r="R225" s="0"/>
+      <c r="S225" s="0"/>
+      <c r="T225" s="0"/>
+      <c r="U225" s="4"/>
+      <c r="V225" s="0"/>
+      <c r="W225" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X225" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y225" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z225" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA225" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB225" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -19684,9 +22720,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B231" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "dirty", "", "", ""]</t>
+      <c r="B231" s="0"/>
+      <c r="C231" s="0"/>
+      <c r="D231" s="0"/>
+      <c r="E231" s="0"/>
+      <c r="F231" s="0"/>
+      <c r="G231" s="0"/>
+      <c r="H231" s="0"/>
+      <c r="I231" s="0"/>
+      <c r="J231" s="0"/>
+      <c r="K231" s="0"/>
+      <c r="L231" s="0"/>
+      <c r="M231" s="4"/>
+      <c r="N231" s="0"/>
+      <c r="O231" s="0"/>
+      <c r="P231" s="0"/>
+      <c r="Q231" s="0"/>
+      <c r="R231" s="0"/>
+      <c r="S231" s="0"/>
+      <c r="T231" s="0"/>
+      <c r="U231" s="4"/>
+      <c r="V231" s="0"/>
+      <c r="W231" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X231" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y231" s="0" t="inlineStr">
+        <is>
+          <t>dirty</t>
+        </is>
+      </c>
+      <c r="Z231" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA231" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB231" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -20126,9 +23208,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B237" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY COTTON DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B237" s="0"/>
+      <c r="C237" s="0"/>
+      <c r="D237" s="0"/>
+      <c r="E237" s="0"/>
+      <c r="F237" s="0"/>
+      <c r="G237" s="0"/>
+      <c r="H237" s="0"/>
+      <c r="I237" s="0"/>
+      <c r="J237" s="0"/>
+      <c r="K237" s="0"/>
+      <c r="L237" s="0"/>
+      <c r="M237" s="4"/>
+      <c r="N237" s="0"/>
+      <c r="O237" s="0"/>
+      <c r="P237" s="0"/>
+      <c r="Q237" s="0"/>
+      <c r="R237" s="0"/>
+      <c r="S237" s="0"/>
+      <c r="T237" s="0"/>
+      <c r="U237" s="4"/>
+      <c r="V237" s="0"/>
+      <c r="W237" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X237" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y237" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z237" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA237" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB237" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -20138,9 +23266,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B238" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B STEEL PLATE FITTING 14'X08' &amp; BROKEN &amp; DOWN .", "", "", ""]</t>
+      <c r="B238" s="0"/>
+      <c r="C238" s="0"/>
+      <c r="D238" s="0"/>
+      <c r="E238" s="0"/>
+      <c r="F238" s="0"/>
+      <c r="G238" s="0"/>
+      <c r="H238" s="0"/>
+      <c r="I238" s="0"/>
+      <c r="J238" s="0"/>
+      <c r="K238" s="0"/>
+      <c r="L238" s="0"/>
+      <c r="M238" s="4"/>
+      <c r="N238" s="0"/>
+      <c r="O238" s="0"/>
+      <c r="P238" s="0"/>
+      <c r="Q238" s="0"/>
+      <c r="R238" s="0"/>
+      <c r="S238" s="0"/>
+      <c r="T238" s="0"/>
+      <c r="U238" s="4"/>
+      <c r="V238" s="0"/>
+      <c r="W238" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X238" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y238" s="0" t="inlineStr">
+        <is>
+          <t>F/B STEEL PLATE FITTING 14'X08' &amp; BROKEN &amp; DOWN .</t>
+        </is>
+      </c>
+      <c r="Z238" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA238" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB238" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_CMC_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_50_.xlsx
+++ b/reports/_CMC_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_50_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:164</t>
+          <t>Total number of containers:164</t>
         </is>
       </c>
     </row>
